--- a/xlsx/SquarePlate_UniformLoading.xlsx
+++ b/xlsx/SquarePlate_UniformLoading.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24480585-F581-4AF6-8F18-DCBE0516252E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D3D68-9C0C-4E03-A8AA-EE495DC425A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>log10(ndiv)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,7 +64,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h=0.01</t>
+    <t>mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log10 L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,7 +495,7 @@
         <v>1.49485002168009</v>
       </c>
       <c r="C3">
-        <v>-5.818835517603047E-16</v>
+        <v>3.2653290317151402</v>
       </c>
       <c r="D3">
         <v>0.61384182187606928</v>
@@ -484,7 +515,7 @@
         <v>1.19382002601611</v>
       </c>
       <c r="C4">
-        <v>3.8758795176860175</v>
+        <v>3.8758795176860201</v>
       </c>
       <c r="D4">
         <v>-0.63056058986246355</v>
@@ -541,7 +572,7 @@
         <v>1.7958800173440701</v>
       </c>
       <c r="G7">
-        <v>4.2159255134118645</v>
+        <v>4.2159255134118601</v>
       </c>
       <c r="H7">
         <v>-1.283375003147647</v>
@@ -561,7 +592,7 @@
         <v>1.49485002168009</v>
       </c>
       <c r="G8">
-        <v>4.2638673890569718</v>
+        <v>4.26386738905697</v>
       </c>
       <c r="H8">
         <v>-2.3837754786402154</v>
@@ -581,7 +612,7 @@
         <v>1.19382002601611</v>
       </c>
       <c r="G9">
-        <v>4.2709853113629723</v>
+        <v>4.2709853113629697</v>
       </c>
       <c r="H9">
         <v>-2.5250103659855947</v>
@@ -601,7 +632,7 @@
         <v>0.892790030352131</v>
       </c>
       <c r="G10">
-        <v>4.2724106855255668</v>
+        <v>4.2724106855255704</v>
       </c>
       <c r="H10">
         <v>-2.3554939055812842</v>
@@ -640,7 +671,7 @@
         <v>1.49485002168009</v>
       </c>
       <c r="C13">
-        <v>4.3834089142013717</v>
+        <v>4.3834089142013699</v>
       </c>
       <c r="D13">
         <v>-0.83093987222419718</v>
@@ -680,7 +711,7 @@
         <v>0.892790030352131</v>
       </c>
       <c r="C15">
-        <v>4.5266249719737006</v>
+        <v>4.5266249719736997</v>
       </c>
       <c r="D15">
         <v>-2.3590191605552562</v>
@@ -768,7 +799,7 @@
         <v>0.892790030352131</v>
       </c>
       <c r="C20">
-        <v>4.8977343966097422</v>
+        <v>4.8977343966097404</v>
       </c>
       <c r="D20">
         <v>-2.3700195270932856</v>
@@ -816,7 +847,7 @@
         <v>1.49485002168009</v>
       </c>
       <c r="C23">
-        <v>5.2917851431651375</v>
+        <v>5.2917851431651401</v>
       </c>
       <c r="D23">
         <v>-1.069484681302471</v>
@@ -825,7 +856,7 @@
         <v>1.49485002168009</v>
       </c>
       <c r="G23">
-        <v>5.3695651013125119</v>
+        <v>5.3695651013125101</v>
       </c>
       <c r="H23">
         <v>-2.128724945065998</v>
@@ -856,7 +887,7 @@
         <v>0.892790030352131</v>
       </c>
       <c r="C25">
-        <v>5.3725162235327533</v>
+        <v>5.3725162235327497</v>
       </c>
       <c r="D25">
         <v>-2.3483560467151547</v>
@@ -879,206 +910,672 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18556688-BFAC-4873-8F7D-0A82B98F0305}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A6C8F1-BD3F-467F-BA44-ABC65D94611C}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>196</v>
+      </c>
+      <c r="C2">
+        <v>3.2997363379760252</v>
+      </c>
+      <c r="E2">
+        <v>961</v>
+      </c>
+      <c r="F2">
+        <v>-0.65861409122790882</v>
+      </c>
+      <c r="H2">
+        <v>2500</v>
+      </c>
+      <c r="I2">
+        <v>-1.9917425555717116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="C3">
+        <v>0.20497607985492106</v>
+      </c>
+      <c r="E3">
+        <v>1024</v>
+      </c>
+      <c r="F3">
+        <v>-0.87672149107733977</v>
+      </c>
+      <c r="H3">
+        <v>2601</v>
+      </c>
+      <c r="I3">
+        <v>-1.8016208696642786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>-0.17600519750837729</v>
+      </c>
+      <c r="E4">
+        <v>1156</v>
+      </c>
+      <c r="F4">
+        <v>-1.8038181619070861</v>
+      </c>
+      <c r="H4">
+        <v>2704</v>
+      </c>
+      <c r="I4">
+        <v>-2.2439496307009321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>289</v>
+      </c>
+      <c r="C5">
+        <v>-1.3306160676672047</v>
+      </c>
+      <c r="E5">
+        <v>1296</v>
+      </c>
+      <c r="F5">
+        <v>-2.0870760580342167</v>
+      </c>
+      <c r="H5">
+        <v>2809</v>
+      </c>
+      <c r="I5">
+        <v>-2.4579473848743856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>324</v>
+      </c>
+      <c r="C6">
+        <v>-1.8379840177534355</v>
+      </c>
+      <c r="E6">
+        <v>1369</v>
+      </c>
+      <c r="F6">
+        <v>-2.1071645605151921</v>
+      </c>
+      <c r="H6">
+        <v>2916</v>
+      </c>
+      <c r="I6">
+        <v>-2.3627920806275324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>361</v>
+      </c>
+      <c r="C7">
+        <v>-0.53995374350728131</v>
+      </c>
+      <c r="E7">
+        <v>1444</v>
+      </c>
+      <c r="F7">
+        <v>-2.2400306271368935</v>
+      </c>
+      <c r="H7">
+        <v>3025</v>
+      </c>
+      <c r="I7">
+        <v>-2.5124329423245526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>-1.1428535335897261</v>
+      </c>
+      <c r="E8">
+        <v>1521</v>
+      </c>
+      <c r="F8">
+        <v>-1.0973762809882845</v>
+      </c>
+      <c r="H8">
+        <v>3136</v>
+      </c>
+      <c r="I8">
+        <v>-2.472684451252003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>441</v>
+      </c>
+      <c r="C9">
+        <v>-0.13543702643192099</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1600</v>
+      </c>
+      <c r="F9">
+        <v>-1.778512351208811</v>
+      </c>
+      <c r="H9">
+        <v>3249</v>
+      </c>
+      <c r="I9">
+        <v>-2.6839401364253184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>484</v>
+      </c>
+      <c r="C10">
+        <v>-0.14511324908787693</v>
+      </c>
+      <c r="E10">
+        <v>1681</v>
+      </c>
+      <c r="F10">
+        <v>-0.19620893600751932</v>
+      </c>
+      <c r="H10">
+        <v>3364</v>
+      </c>
+      <c r="I10">
+        <v>-1.7614597682693753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>529</v>
+      </c>
+      <c r="C11">
+        <v>-1.461247200483864E-3</v>
+      </c>
+      <c r="E11">
+        <v>1764</v>
+      </c>
+      <c r="F11">
+        <v>-2.522621660650539E-2</v>
+      </c>
+      <c r="H11">
+        <v>3481</v>
+      </c>
+      <c r="I11">
+        <v>-1.1302499879618058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>576</v>
+      </c>
+      <c r="C12">
+        <v>-2.1141263413489574E-3</v>
+      </c>
+      <c r="E12">
+        <v>1849</v>
+      </c>
+      <c r="F12">
+        <v>-6.1233850982984853E-2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>3600</v>
+      </c>
+      <c r="I12">
+        <v>-2.2412146171936276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>3721</v>
+      </c>
+      <c r="I13">
+        <v>-0.13437480096802232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>3844</v>
+      </c>
+      <c r="I14">
+        <v>-4.8206194908205586E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-1.37075803260385</v>
+      </c>
+      <c r="D15">
+        <v>-1.98719877007108</v>
+      </c>
+      <c r="H15">
+        <v>3969</v>
+      </c>
+      <c r="I15">
+        <v>-0.11433272716635204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>4096</v>
+      </c>
+      <c r="I16">
+        <v>-1.9560999195065001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-1.6160129894669699</v>
+      </c>
+      <c r="D17">
+        <v>-2.1347581853198201</v>
+      </c>
+      <c r="H17">
+        <v>-2.3453232403913402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>-2.49379057232589</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18556688-BFAC-4873-8F7D-0A82B98F0305}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
+      <c r="C1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D1">
+        <v>1E-4</v>
+      </c>
+      <c r="E1">
+        <v>1E-3</v>
+      </c>
+      <c r="F1">
+        <v>0.01</v>
+      </c>
+      <c r="G1">
         <v>0.1</v>
-      </c>
-      <c r="E1">
-        <v>0.2</v>
-      </c>
-      <c r="F1">
-        <v>0.5</v>
-      </c>
-      <c r="G1">
-        <v>0.8</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
-      <c r="I1">
-        <v>1.2</v>
-      </c>
-      <c r="J1">
-        <v>1.5</v>
-      </c>
-      <c r="K1">
-        <v>1.8</v>
-      </c>
-      <c r="L1">
-        <v>2</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>-0.90308998699194354</v>
       </c>
       <c r="C2">
-        <v>4.1220637093826182</v>
+        <v>-5.7059448471959443E-9</v>
       </c>
       <c r="D2">
-        <v>2.6762654700394148</v>
+        <v>-5.7059370965424627E-7</v>
       </c>
       <c r="E2">
-        <v>1.9259264694510565</v>
+        <v>-5.705164447316832E-5</v>
       </c>
       <c r="F2">
-        <v>0.73544873221131979</v>
+        <v>-5.6292983439179614E-3</v>
       </c>
       <c r="G2">
-        <v>-0.18000662263688738</v>
+        <v>-0.26961708701920095</v>
       </c>
       <c r="H2">
         <v>-0.56650654876251438</v>
       </c>
-      <c r="I2">
-        <v>-0.26249752097286361</v>
-      </c>
-      <c r="J2">
-        <v>-0.11694760928935088</v>
-      </c>
-      <c r="K2">
-        <v>-6.4136570096394632E-2</v>
-      </c>
-      <c r="L2">
-        <v>-4.5879252932038532E-2</v>
-      </c>
-      <c r="M2">
-        <v>-3.4999049419166947E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-1.2041199826559248</v>
       </c>
       <c r="C3">
-        <v>4.8212714534162346</v>
+        <v>-3.0739082728391161E-8</v>
       </c>
       <c r="D3">
-        <v>2.9104508692991971</v>
+        <v>-3.0738912798649987E-6</v>
       </c>
       <c r="E3">
-        <v>2.0523558260239954</v>
+        <v>-3.0721920628221615E-4</v>
       </c>
       <c r="F3">
-        <v>0.81882231664286476</v>
+        <v>-2.9155229559202713E-2</v>
       </c>
       <c r="G3">
-        <v>-6.3169489000350437E-2</v>
+        <v>-0.71766570761908299</v>
       </c>
       <c r="H3">
         <v>-1.1718077686179009</v>
       </c>
-      <c r="I3">
-        <v>-0.34777557689345634</v>
-      </c>
-      <c r="J3">
-        <v>-0.14421479871600168</v>
-      </c>
-      <c r="K3">
-        <v>-7.7586923627744581E-2</v>
-      </c>
-      <c r="L3">
-        <v>-5.5165991016988991E-2</v>
-      </c>
-      <c r="M3">
-        <v>-4.1489730025096971E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>-1.505149978319906</v>
       </c>
       <c r="C4">
-        <v>5.3651063152448906</v>
+        <v>-1.3579325540096833E-7</v>
       </c>
       <c r="D4">
-        <v>2.9770298729342448</v>
+        <v>-1.3579014728202126E-5</v>
       </c>
       <c r="E4">
-        <v>2.0834998501659383</v>
+        <v>-1.3548047250669048E-3</v>
       </c>
       <c r="F4">
-        <v>0.83881154537734426</v>
+        <v>-0.11250576329305592</v>
       </c>
       <c r="G4">
-        <v>-3.1014494126424853E-2</v>
+        <v>-1.2808117562273413</v>
       </c>
       <c r="H4">
         <v>-1.7892885489070443</v>
       </c>
-      <c r="I4">
-        <v>-0.36883079623244697</v>
-      </c>
-      <c r="J4">
-        <v>-0.15061487237706328</v>
-      </c>
-      <c r="K4">
-        <v>-8.071557681624135E-2</v>
-      </c>
-      <c r="L4">
-        <v>-5.7320584905983102E-2</v>
-      </c>
-      <c r="M4">
-        <v>-4.2985451301485176E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>-1.8061799739838871</v>
       </c>
       <c r="C5">
-        <v>5.7322605481688802</v>
+        <v>-5.6522160374555344E-7</v>
       </c>
       <c r="D5">
-        <v>2.9939965366252776</v>
+        <v>-5.6516859103389447E-5</v>
       </c>
       <c r="E5">
-        <v>2.0910007180550871</v>
+        <v>-5.5994702399083289E-3</v>
       </c>
       <c r="F5">
-        <v>0.84356814001091751</v>
+        <v>-0.33263109132090846</v>
       </c>
       <c r="G5">
-        <v>-2.3324234960712807E-2</v>
+        <v>-1.8790983269388977</v>
       </c>
       <c r="H5">
         <v>-2.4021616612448513</v>
       </c>
-      <c r="I5">
-        <v>-0.37381375783831483</v>
-      </c>
-      <c r="J5">
-        <v>-0.15212543156084879</v>
-      </c>
-      <c r="K5">
-        <v>-8.1453716283681754E-2</v>
-      </c>
-      <c r="L5">
-        <v>-5.7828843972720236E-2</v>
-      </c>
-      <c r="M5">
-        <v>-4.3338042050771651E-4</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C7">
+        <v>-1.0978322637823625E-3</v>
+      </c>
+      <c r="D7">
+        <v>-4.0003700522377124E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.22738658106679724</v>
+      </c>
+      <c r="F7">
+        <v>-0.78156077187498496</v>
+      </c>
+      <c r="G7">
+        <v>-0.93391502353489997</v>
+      </c>
+      <c r="H7">
+        <v>-0.68505736403971584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C8">
+        <v>-0.76769635489789512</v>
+      </c>
+      <c r="D8">
+        <v>-1.304476242713384</v>
+      </c>
+      <c r="E8">
+        <v>-1.5817983973295247</v>
+      </c>
+      <c r="F8">
+        <v>-1.5957598975102874</v>
+      </c>
+      <c r="G8">
+        <v>-1.6779990926543933</v>
+      </c>
+      <c r="H8">
+        <v>-1.3843711115653448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C9">
+        <v>-1.6306349982396591</v>
+      </c>
+      <c r="D9">
+        <v>-2.0833151243935326</v>
+      </c>
+      <c r="E9">
+        <v>-2.2556068150951272</v>
+      </c>
+      <c r="F9">
+        <v>-2.2805754701350454</v>
+      </c>
+      <c r="G9">
+        <v>-2.3308674089121135</v>
+      </c>
+      <c r="H9">
+        <v>-1.9946200067989304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C10">
+        <v>-2.3531857775813658</v>
+      </c>
+      <c r="D10">
+        <v>-2.8804906677957978</v>
+      </c>
+      <c r="E10">
+        <v>-2.9087722293372842</v>
+      </c>
+      <c r="F10">
+        <v>-2.9382531718861906</v>
+      </c>
+      <c r="G10">
+        <v>-2.9516330098913781</v>
+      </c>
+      <c r="H10">
+        <v>-2.5912623327012856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C12">
+        <v>-0.67065239348915806</v>
+      </c>
+      <c r="D12">
+        <v>-0.67065236682340623</v>
+      </c>
+      <c r="E12">
+        <v>-0.67065415120918648</v>
+      </c>
+      <c r="F12">
+        <v>-0.67083283185670084</v>
+      </c>
+      <c r="G12">
+        <v>-0.6880700467969576</v>
+      </c>
+      <c r="H12">
+        <v>-0.74983529570539409</v>
+      </c>
+      <c r="I12">
+        <v>-0.75975994280566983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="C13">
+        <v>-1.3100692007330779</v>
+      </c>
+      <c r="D13">
+        <v>-1.310069368180951</v>
+      </c>
+      <c r="E13">
+        <v>-1.3100711253383794</v>
+      </c>
+      <c r="F13">
+        <v>-1.3102470708588958</v>
+      </c>
+      <c r="G13">
+        <v>-1.3275776482427863</v>
+      </c>
+      <c r="H13">
+        <v>-1.4108726233924243</v>
+      </c>
+      <c r="I13">
+        <v>-1.4150712831269825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="C14">
+        <v>-1.9358751746300353</v>
+      </c>
+      <c r="D14">
+        <v>-1.9358669414073753</v>
+      </c>
+      <c r="E14">
+        <v>-1.935868710948089</v>
+      </c>
+      <c r="F14">
+        <v>-1.9360450200403001</v>
+      </c>
+      <c r="G14">
+        <v>-1.9534073676205115</v>
+      </c>
+      <c r="H14">
+        <v>-2.0410247852300203</v>
+      </c>
+      <c r="I14">
+        <v>-2.0440364842187488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>-1.8061799739838871</v>
+      </c>
+      <c r="C15">
+        <v>-2.5507458915454833</v>
+      </c>
+      <c r="D15">
+        <v>-2.5507287710427549</v>
+      </c>
+      <c r="E15">
+        <v>-2.5507306620363113</v>
+      </c>
+      <c r="F15">
+        <v>-2.5509071020626677</v>
+      </c>
+      <c r="G15">
+        <v>-2.5682774659614735</v>
+      </c>
+      <c r="H15">
+        <v>-2.6568847778717588</v>
+      </c>
+      <c r="I15">
+        <v>-2.6596230154253089</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/SquarePlate_UniformLoading.xlsx
+++ b/xlsx/SquarePlate_UniformLoading.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D3D68-9C0C-4E03-A8AA-EE495DC425A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53FA05-A2BE-4193-9709-05449E40FDA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>log10(ndiv)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,17 +433,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -454,7 +455,7 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>0</v>
       </c>
       <c r="G1" t="s">
@@ -464,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -490,7 +491,7 @@
         <v>-1.0184481902809375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="B3">
         <v>1.49485002168009</v>
       </c>
@@ -510,7 +511,7 @@
         <v>-2.1220545685415799</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>1.19382002601611</v>
       </c>
@@ -530,7 +531,7 @@
         <v>-2.5439397266333419</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5">
         <v>0.892790030352131</v>
       </c>
@@ -550,7 +551,7 @@
         <v>-2.3442654580297497</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -558,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="B7">
         <v>1.7958800173440701</v>
       </c>
@@ -578,7 +579,7 @@
         <v>-1.283375003147647</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8">
         <v>1.49485002168009</v>
       </c>
@@ -598,7 +599,7 @@
         <v>-2.3837754786402154</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>1.19382002601611</v>
       </c>
@@ -618,7 +619,7 @@
         <v>-2.5250103659855947</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10">
         <v>0.892790030352131</v>
       </c>
@@ -638,7 +639,7 @@
         <v>-2.3554939055812842</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -646,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12">
         <v>1.7958800173440701</v>
       </c>
@@ -666,7 +667,7 @@
         <v>-1.3651723676979359</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13">
         <v>1.49485002168009</v>
       </c>
@@ -686,7 +687,7 @@
         <v>-2.3552447967130679</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14">
         <v>1.19382002601611</v>
       </c>
@@ -706,7 +707,7 @@
         <v>-2.6727155250461285</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15">
         <v>0.892790030352131</v>
       </c>
@@ -726,7 +727,7 @@
         <v>-2.4533716603482487</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="B17">
         <v>1.7958800173440701</v>
       </c>
@@ -754,7 +755,7 @@
         <v>-1.3794992218909314</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18">
         <v>1.49485002168009</v>
       </c>
@@ -774,7 +775,7 @@
         <v>-2.2250394312037312</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>1.19382002601611</v>
       </c>
@@ -794,7 +795,7 @@
         <v>-3.332274451109992</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>0.892790030352131</v>
       </c>
@@ -814,7 +815,7 @@
         <v>-2.7280089410032957</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -822,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>1.7958800173440701</v>
       </c>
@@ -842,7 +843,7 @@
         <v>-1.3729151534748893</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="B23">
         <v>1.49485002168009</v>
       </c>
@@ -862,7 +863,7 @@
         <v>-2.128724945065998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="B24">
         <v>1.19382002601611</v>
       </c>
@@ -882,7 +883,7 @@
         <v>-3.0137404605923797</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="B25">
         <v>0.892790030352131</v>
       </c>
@@ -919,7 +920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2">
         <v>20</v>
       </c>
@@ -948,7 +949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="B2">
         <v>196</v>
       </c>
@@ -968,7 +969,7 @@
         <v>-1.9917425555717116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>225</v>
       </c>
@@ -988,7 +989,7 @@
         <v>-1.8016208696642786</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>256</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>-2.2439496307009321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>289</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>-2.4579473848743856</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="B6">
         <v>324</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>-2.3627920806275324</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>361</v>
       </c>
@@ -1068,8 +1069,8 @@
         <v>-2.5124329423245526</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s" s="3">
         <v>14</v>
       </c>
       <c r="B8">
@@ -1091,14 +1092,14 @@
         <v>-2.472684451252003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>441</v>
       </c>
       <c r="C9">
         <v>-0.13543702643192099</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s" s="3">
         <v>14</v>
       </c>
       <c r="E9">
@@ -1114,7 +1115,7 @@
         <v>-2.6839401364253184</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="B10">
         <v>484</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>-1.7614597682693753</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11">
         <v>529</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>-1.1302499879618058</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="B12">
         <v>576</v>
       </c>
@@ -1167,7 +1168,7 @@
       <c r="F12">
         <v>-6.1233850982984853E-2</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H12">
@@ -1177,7 +1178,7 @@
         <v>-2.2412146171936276</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="H13">
         <v>3721</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>-0.13437480096802232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>-4.8206194908205586E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>-1.37075803260385</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>-0.11433272716635204</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>-1.9560999195065001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>-1.6160129894669699</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>-2.3453232403913402</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="H19">
         <v>-2.49379057232589</v>
       </c>
@@ -1254,11 +1255,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
       <c r="C1">
@@ -1280,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="B2">
         <v>-0.90308998699194354</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>-0.56650654876251438</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>-1.2041199826559248</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>-1.1718077686179009</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>-1.505149978319906</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>-1.7892885489070443</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>-1.8061799739838871</v>
       </c>
@@ -1372,12 +1373,12 @@
         <v>-2.4021616612448513</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>-0.90308998699194354</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>-0.68505736403971584</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="B8">
         <v>-1.2041199826559248</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>-1.3843711115653448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>-1.505149978319906</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>-1.9946200067989304</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="B10">
         <v>-1.8061799739838871</v>
       </c>
@@ -1469,12 +1470,12 @@
         <v>-2.5912623327012856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="B12">
         <v>-0.90308998699194354</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>-0.75975994280566983</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="B13">
         <v>-1.2041199826559248</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>-1.4150712831269825</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14">
         <v>-1.505149978319906</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>-2.0440364842187488</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15">
         <v>-1.8061799739838871</v>
       </c>
@@ -1576,6 +1577,37 @@
       </c>
       <c r="I15">
         <v>-2.6596230154253089</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8AB516-2D20-43BE-9363-3C56DFE5CC7D}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="H2">
+        <v>270</v>
+      </c>
+      <c r="I2">
+        <v>-0.1412390301575925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="H3">
+        <v>280</v>
+      </c>
+      <c r="I3">
+        <v>0.11934719417138274</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/SquarePlate_UniformLoading.xlsx
+++ b/xlsx/SquarePlate_UniformLoading.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF53FA05-A2BE-4193-9709-05449E40FDA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418211A1-A171-4D89-A645-511A90571831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="四边固定" sheetId="4" r:id="rId4"/>
+    <sheet name="简支" sheetId="5" r:id="rId5"/>
+    <sheet name="悬臂" sheetId="6" r:id="rId6"/>
+    <sheet name="quad悬臂" sheetId="7" r:id="rId7"/>
+    <sheet name="quad简支" sheetId="8" r:id="rId8"/>
+    <sheet name="quad固支" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>log10(ndiv)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,11 +444,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -455,7 +460,7 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
@@ -465,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -491,7 +496,7 @@
         <v>-1.0184481902809375</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.49485002168009</v>
       </c>
@@ -511,7 +516,7 @@
         <v>-2.1220545685415799</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.19382002601611</v>
       </c>
@@ -531,7 +536,7 @@
         <v>-2.5439397266333419</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.892790030352131</v>
       </c>
@@ -551,7 +556,7 @@
         <v>-2.3442654580297497</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -559,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1.7958800173440701</v>
       </c>
@@ -579,7 +584,7 @@
         <v>-1.283375003147647</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1.49485002168009</v>
       </c>
@@ -599,7 +604,7 @@
         <v>-2.3837754786402154</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1.19382002601611</v>
       </c>
@@ -619,7 +624,7 @@
         <v>-2.5250103659855947</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.892790030352131</v>
       </c>
@@ -639,7 +644,7 @@
         <v>-2.3554939055812842</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -647,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.7958800173440701</v>
       </c>
@@ -667,7 +672,7 @@
         <v>-1.3651723676979359</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1.49485002168009</v>
       </c>
@@ -687,7 +692,7 @@
         <v>-2.3552447967130679</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1.19382002601611</v>
       </c>
@@ -707,7 +712,7 @@
         <v>-2.6727155250461285</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.892790030352131</v>
       </c>
@@ -727,7 +732,7 @@
         <v>-2.4533716603482487</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -735,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1.7958800173440701</v>
       </c>
@@ -755,7 +760,7 @@
         <v>-1.3794992218909314</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1.49485002168009</v>
       </c>
@@ -775,7 +780,7 @@
         <v>-2.2250394312037312</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1.19382002601611</v>
       </c>
@@ -795,7 +800,7 @@
         <v>-3.332274451109992</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.892790030352131</v>
       </c>
@@ -815,7 +820,7 @@
         <v>-2.7280089410032957</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -823,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1.7958800173440701</v>
       </c>
@@ -843,7 +848,7 @@
         <v>-1.3729151534748893</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1.49485002168009</v>
       </c>
@@ -863,7 +868,7 @@
         <v>-2.128724945065998</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1.19382002601611</v>
       </c>
@@ -883,7 +888,7 @@
         <v>-3.0137404605923797</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0.892790030352131</v>
       </c>
@@ -920,7 +925,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>20</v>
       </c>
@@ -949,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>196</v>
       </c>
@@ -969,7 +974,7 @@
         <v>-1.9917425555717116</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>225</v>
       </c>
@@ -989,7 +994,7 @@
         <v>-1.8016208696642786</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>256</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>-2.2439496307009321</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>289</v>
       </c>
@@ -1029,7 +1034,7 @@
         <v>-2.4579473848743856</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>324</v>
       </c>
@@ -1049,7 +1054,7 @@
         <v>-2.3627920806275324</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>361</v>
       </c>
@@ -1069,8 +1074,8 @@
         <v>-2.5124329423245526</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -1092,14 +1097,14 @@
         <v>-2.472684451252003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>441</v>
       </c>
       <c r="C9">
         <v>-0.13543702643192099</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9">
@@ -1115,7 +1120,7 @@
         <v>-2.6839401364253184</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>484</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>-1.7614597682693753</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>529</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>-1.1302499879618058</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>576</v>
       </c>
@@ -1168,7 +1173,7 @@
       <c r="F12">
         <v>-6.1233850982984853E-2</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12">
@@ -1178,7 +1183,7 @@
         <v>-2.2412146171936276</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H13">
         <v>3721</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>-0.13437480096802232</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>-4.8206194908205586E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-1.37075803260385</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>-0.11433272716635204</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>-1.9560999195065001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-1.6160129894669699</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>-2.3453232403913402</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H19">
         <v>-2.49379057232589</v>
       </c>
@@ -1255,11 +1260,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
@@ -1281,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>-0.90308998699194354</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>-0.56650654876251438</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>-1.2041199826559248</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>-1.1718077686179009</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>-1.505149978319906</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>-1.7892885489070443</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>-1.8061799739838871</v>
       </c>
@@ -1373,12 +1378,12 @@
         <v>-2.4021616612448513</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>-0.90308998699194354</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>-0.68505736403971584</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>-1.2041199826559248</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>-1.3843711115653448</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>-1.505149978319906</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>-1.9946200067989304</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>-1.8061799739838871</v>
       </c>
@@ -1470,12 +1475,12 @@
         <v>-2.5912623327012856</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>-0.90308998699194354</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>-0.75975994280566983</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>-1.2041199826559248</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>-1.4150712831269825</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>-1.505149978319906</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>-2.0440364842187488</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>-1.8061799739838871</v>
       </c>
@@ -1588,26 +1593,6308 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8AB516-2D20-43BE-9363-3C56DFE5CC7D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>460</v>
+      </c>
       <c r="H2">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="I2">
+        <v>0.70088216091578248</v>
+      </c>
+      <c r="J2">
+        <v>810</v>
+      </c>
+      <c r="K2">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="L2">
+        <v>0.76868393422735859</v>
+      </c>
+      <c r="S2">
+        <v>460</v>
+      </c>
+      <c r="T2">
+        <v>-0.99457434441700199</v>
+      </c>
+      <c r="U2">
+        <v>810</v>
+      </c>
+      <c r="V2">
+        <v>-1.1295779823902559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>470</v>
+      </c>
+      <c r="H3">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="I3">
+        <v>0.12654960832653372</v>
+      </c>
+      <c r="J3">
+        <v>830</v>
+      </c>
+      <c r="K3">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="L3">
+        <v>0.198872004738537</v>
+      </c>
+      <c r="Q3">
+        <v>200</v>
+      </c>
+      <c r="R3">
+        <v>-0.49170644305678962</v>
+      </c>
+      <c r="S3">
+        <v>470</v>
+      </c>
+      <c r="T3">
+        <v>-1.4585853562721502</v>
+      </c>
+      <c r="U3">
+        <v>830</v>
+      </c>
+      <c r="V3">
+        <v>-1.5170196725636707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>-1.1408974442065001</v>
+      </c>
+      <c r="F4">
+        <v>-0.23800853531758567</v>
+      </c>
+      <c r="G4">
+        <v>480</v>
+      </c>
+      <c r="H4">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="I4">
+        <v>-0.22686260758048646</v>
+      </c>
+      <c r="J4">
+        <v>850</v>
+      </c>
+      <c r="K4">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="L4">
+        <v>-0.18776792947604437</v>
+      </c>
+      <c r="Q4">
+        <v>210</v>
+      </c>
+      <c r="R4">
+        <v>-0.88567754799467635</v>
+      </c>
+      <c r="S4">
+        <v>480</v>
+      </c>
+      <c r="T4">
+        <v>-1.6942174965089334</v>
+      </c>
+      <c r="U4">
+        <v>850</v>
+      </c>
+      <c r="V4">
+        <v>-1.8166294490140662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>230</v>
+      </c>
+      <c r="E5">
+        <v>-1.1512396002413157</v>
+      </c>
+      <c r="F5">
+        <v>-0.37654946180177012</v>
+      </c>
+      <c r="G5">
+        <v>490</v>
+      </c>
+      <c r="H5">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="I5">
+        <v>-0.62503244681101389</v>
+      </c>
+      <c r="J5">
+        <v>860</v>
+      </c>
+      <c r="K5">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="L5">
+        <v>-0.57855140139029515</v>
+      </c>
+      <c r="Q5">
+        <v>220</v>
+      </c>
+      <c r="R5">
+        <v>-1.3165653502343477</v>
+      </c>
+      <c r="S5">
+        <v>490</v>
+      </c>
+      <c r="T5">
+        <v>-1.7522728379270291</v>
+      </c>
+      <c r="U5">
+        <v>860</v>
+      </c>
+      <c r="V5">
+        <v>-1.9295152724115523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>235</v>
+      </c>
+      <c r="E6">
+        <v>-1.1562373927917611</v>
+      </c>
+      <c r="F6">
+        <v>-0.81420699547458009</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="I6">
+        <v>-1.0487881481887993</v>
+      </c>
+      <c r="J6">
+        <v>870</v>
+      </c>
+      <c r="K6">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="L6">
+        <v>-0.50251341191132137</v>
+      </c>
+      <c r="Q6">
+        <v>230</v>
+      </c>
+      <c r="R6">
+        <v>-1.5865212496387362</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6">
+        <v>-1.9761138641390343</v>
+      </c>
+      <c r="U6">
+        <v>870</v>
+      </c>
+      <c r="V6">
+        <v>-2.004191581899196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="F7">
+        <v>-1.2200096752610172</v>
+      </c>
+      <c r="G7">
+        <v>510</v>
+      </c>
+      <c r="H7">
+        <v>-1.3341154242617597</v>
+      </c>
+      <c r="I7">
+        <v>-1.1652901749336346</v>
+      </c>
+      <c r="J7">
+        <v>880</v>
+      </c>
+      <c r="K7">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="L7">
+        <v>-0.86587381899218341</v>
+      </c>
+      <c r="Q7">
+        <v>240</v>
+      </c>
+      <c r="R7">
+        <v>-1.6753563547527173</v>
+      </c>
+      <c r="S7">
+        <v>510</v>
+      </c>
+      <c r="T7">
+        <v>-2.0084722384945595</v>
+      </c>
+      <c r="U7">
+        <v>880</v>
+      </c>
+      <c r="V7">
+        <v>-2.1529788072062988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="F8">
+        <v>-1.3415023705297255</v>
+      </c>
+      <c r="G8">
+        <v>520</v>
+      </c>
+      <c r="H8">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="I8">
+        <v>-1.2479248553896995</v>
+      </c>
+      <c r="J8">
+        <v>890</v>
+      </c>
+      <c r="K8">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="L8">
+        <v>-1.1903108158841331</v>
+      </c>
+      <c r="Q8">
+        <v>250</v>
+      </c>
+      <c r="R8">
+        <v>-1.7057890757187679</v>
+      </c>
+      <c r="S8">
+        <v>520</v>
+      </c>
+      <c r="T8">
+        <v>-2.0845048992651587</v>
+      </c>
+      <c r="U8">
+        <v>890</v>
+      </c>
+      <c r="V8">
+        <v>-2.2483374225531452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>-1.1751846479411752</v>
+      </c>
+      <c r="F9">
+        <v>-1.3990913044870239</v>
+      </c>
+      <c r="G9">
+        <v>530</v>
+      </c>
+      <c r="H9">
+        <v>-1.3428514112607162</v>
+      </c>
+      <c r="I9">
+        <v>-1.2762690919150386</v>
+      </c>
+      <c r="J9">
+        <v>900</v>
+      </c>
+      <c r="K9">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="L9">
+        <v>-1.2456839717279458</v>
+      </c>
+      <c r="Q9">
+        <v>255</v>
+      </c>
+      <c r="R9">
+        <v>-1.6984306724401659</v>
+      </c>
+      <c r="S9">
+        <v>530</v>
+      </c>
+      <c r="T9">
+        <v>-2.1066592268673729</v>
+      </c>
+      <c r="U9">
+        <v>900</v>
+      </c>
+      <c r="V9">
+        <v>-2.206367370743175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>260</v>
+      </c>
+      <c r="E10">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="F10">
+        <v>-1.3141196598280978</v>
+      </c>
+      <c r="G10">
+        <v>540</v>
+      </c>
+      <c r="H10">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="I10">
+        <v>-1.5464059108756463</v>
+      </c>
+      <c r="J10">
+        <v>910</v>
+      </c>
+      <c r="K10">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="L10">
+        <v>-1.387338802121181</v>
+      </c>
+      <c r="Q10">
+        <v>260</v>
+      </c>
+      <c r="R10">
+        <v>-1.7682411915545939</v>
+      </c>
+      <c r="S10">
+        <v>540</v>
+      </c>
+      <c r="T10">
+        <v>-2.1024030225395758</v>
+      </c>
+      <c r="U10">
+        <v>910</v>
+      </c>
+      <c r="V10">
+        <v>-2.2745542466519209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>265</v>
+      </c>
+      <c r="E11">
+        <v>-1.1840898314402897</v>
+      </c>
+      <c r="F11">
+        <v>-1.3380531147337851</v>
+      </c>
+      <c r="G11">
+        <v>550</v>
+      </c>
+      <c r="H11">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="I11">
+        <v>-1.6142679836159355</v>
+      </c>
+      <c r="J11">
+        <v>920</v>
+      </c>
+      <c r="K11">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="L11">
+        <v>-1.5752390499704914</v>
+      </c>
+      <c r="Q11">
+        <v>265</v>
+      </c>
+      <c r="R11">
+        <v>-1.637548970333119</v>
+      </c>
+      <c r="S11">
+        <v>560</v>
+      </c>
+      <c r="T11">
+        <v>-2.1043995603201382</v>
+      </c>
+      <c r="U11">
+        <v>920</v>
+      </c>
+      <c r="V11">
+        <v>-2.2918830714199987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D12">
         <v>270</v>
       </c>
+      <c r="E12">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="F12">
+        <v>-1.4547364995030345</v>
+      </c>
+      <c r="G12">
+        <v>560</v>
+      </c>
+      <c r="H12">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="I12">
+        <v>-1.8411351995893683</v>
+      </c>
+      <c r="J12">
+        <v>930</v>
+      </c>
+      <c r="K12">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="L12">
+        <v>-1.8131062257243369</v>
+      </c>
+      <c r="Q12">
+        <v>270</v>
+      </c>
+      <c r="R12">
+        <v>-1.6055368691121781</v>
+      </c>
+      <c r="S12">
+        <v>580</v>
+      </c>
+      <c r="T12">
+        <v>-2.1127639341469719</v>
+      </c>
+      <c r="U12">
+        <v>930</v>
+      </c>
+      <c r="V12">
+        <v>-2.3035160962443677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>280</v>
+      </c>
+      <c r="E13">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="F13">
+        <v>-1.4404237502165229</v>
+      </c>
+      <c r="G13">
+        <v>570</v>
+      </c>
+      <c r="H13">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="I13">
+        <v>-1.7926944268835867</v>
+      </c>
+      <c r="J13">
+        <v>940</v>
+      </c>
+      <c r="K13">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="L13">
+        <v>-1.8636655379882805</v>
+      </c>
+      <c r="Q13">
+        <v>280</v>
+      </c>
+      <c r="R13">
+        <v>-1.5930009428919971</v>
+      </c>
+      <c r="S13">
+        <v>600</v>
+      </c>
+      <c r="T13">
+        <v>-2.0765676220083291</v>
+      </c>
+      <c r="U13">
+        <v>940</v>
+      </c>
+      <c r="V13">
+        <v>-2.314706194214307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>290</v>
+      </c>
+      <c r="E14">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="F14">
+        <v>-1.5700694656466521</v>
+      </c>
+      <c r="G14">
+        <v>580</v>
+      </c>
+      <c r="H14">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="I14">
+        <v>-1.7683073771738649</v>
+      </c>
+      <c r="J14">
+        <v>950</v>
+      </c>
+      <c r="K14">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="L14">
+        <v>-1.9679750596004872</v>
+      </c>
+      <c r="Q14">
+        <v>290</v>
+      </c>
+      <c r="R14">
+        <v>-1.6102198858614043</v>
+      </c>
+      <c r="S14">
+        <v>650</v>
+      </c>
+      <c r="T14">
+        <v>-1.8880253850034336</v>
+      </c>
+      <c r="U14">
+        <v>950</v>
+      </c>
+      <c r="V14">
+        <v>-2.3065643583589739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>300</v>
+      </c>
+      <c r="E15">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="F15">
+        <v>-1.5552894281404714</v>
+      </c>
+      <c r="G15">
+        <v>590</v>
+      </c>
+      <c r="H15">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="I15">
+        <v>-1.7321137219372942</v>
+      </c>
+      <c r="J15">
+        <v>970</v>
+      </c>
+      <c r="K15">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="L15">
+        <v>-1.9174666934350013</v>
+      </c>
+      <c r="Q15">
+        <v>300</v>
+      </c>
+      <c r="R15">
+        <v>-1.585813433306696</v>
+      </c>
+      <c r="S15">
+        <v>700</v>
+      </c>
+      <c r="T15">
+        <v>-1.7585772276480578</v>
+      </c>
+      <c r="U15">
+        <v>970</v>
+      </c>
+      <c r="V15">
+        <v>-2.3192625347738325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>310</v>
+      </c>
+      <c r="E16">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="F16">
+        <v>-1.4221659645738352</v>
+      </c>
+      <c r="G16">
+        <v>600</v>
+      </c>
+      <c r="H16">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="I16">
+        <v>-1.7249631496090698</v>
+      </c>
+      <c r="J16">
+        <v>990</v>
+      </c>
+      <c r="K16">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="L16">
+        <v>-2.0717712468658975</v>
+      </c>
+      <c r="Q16">
+        <v>310</v>
+      </c>
+      <c r="R16">
+        <v>-1.576197775236641</v>
+      </c>
+      <c r="S16">
+        <v>730</v>
+      </c>
+      <c r="T16">
+        <v>-1.5454820414881223</v>
+      </c>
+      <c r="U16">
+        <v>990</v>
+      </c>
+      <c r="V16">
+        <v>-2.3190671277295549</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>320</v>
+      </c>
+      <c r="E17">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="F17">
+        <v>-1.331879784995835</v>
+      </c>
+      <c r="G17">
+        <v>610</v>
+      </c>
+      <c r="H17">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="I17">
+        <v>-1.7443507280969346</v>
+      </c>
+      <c r="J17">
+        <v>1010</v>
+      </c>
+      <c r="K17">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="L17">
+        <v>-2.0785235161462192</v>
+      </c>
+      <c r="Q17">
+        <v>320</v>
+      </c>
+      <c r="R17">
+        <v>-1.4122696806791299</v>
+      </c>
+      <c r="S17">
+        <v>750</v>
+      </c>
+      <c r="T17">
+        <v>-1.596205316532143</v>
+      </c>
+      <c r="U17">
+        <v>1010</v>
+      </c>
+      <c r="V17">
+        <v>-2.3066287805528063</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>330</v>
+      </c>
+      <c r="E18">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="F18">
+        <v>-1.2281324739111212</v>
+      </c>
+      <c r="G18">
+        <v>620</v>
+      </c>
+      <c r="H18">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="I18">
+        <v>-1.8020204027888544</v>
+      </c>
+      <c r="J18">
+        <v>1050</v>
+      </c>
+      <c r="K18">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="L18">
+        <v>-2.0188047999768046</v>
+      </c>
+      <c r="Q18">
+        <v>330</v>
+      </c>
+      <c r="R18">
+        <v>-1.3142629291714378</v>
+      </c>
+      <c r="S18">
+        <v>770</v>
+      </c>
+      <c r="T18">
+        <v>-1.5174141283937408</v>
+      </c>
+      <c r="U18">
+        <v>1050</v>
+      </c>
+      <c r="V18">
+        <v>-2.2938073854240222</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>340</v>
+      </c>
+      <c r="E19">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="F19">
+        <v>-1.1202670474766572</v>
+      </c>
+      <c r="G19">
+        <v>630</v>
+      </c>
+      <c r="H19">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="I19">
+        <v>-1.7952793550810355</v>
+      </c>
+      <c r="J19">
+        <v>1100</v>
+      </c>
+      <c r="K19">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="L19">
+        <v>-2.066467141585282</v>
+      </c>
+      <c r="Q19">
+        <v>340</v>
+      </c>
+      <c r="R19">
+        <v>-1.2270354607636311</v>
+      </c>
+      <c r="S19">
+        <v>790</v>
+      </c>
+      <c r="T19">
+        <v>-1.5111051479072597</v>
+      </c>
+      <c r="U19">
+        <v>1100</v>
+      </c>
+      <c r="V19">
+        <v>-2.1873020407962853</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>350</v>
+      </c>
+      <c r="E20">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="F20">
+        <v>-1.0918556828323873</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="I20">
+        <v>-1.699974966647505</v>
+      </c>
+      <c r="J20">
+        <v>1150</v>
+      </c>
+      <c r="K20">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="L20">
+        <v>-1.8646404570588522</v>
+      </c>
+      <c r="Q20">
+        <v>350</v>
+      </c>
+      <c r="R20">
+        <v>-1.0923890511423477</v>
+      </c>
+      <c r="S20">
+        <v>810</v>
+      </c>
+      <c r="T20">
+        <v>-1.3895410656360523</v>
+      </c>
+      <c r="U20">
+        <v>1150</v>
+      </c>
+      <c r="V20">
+        <v>-2.0897598216191193</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>360</v>
+      </c>
+      <c r="E21">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="F21">
+        <v>-0.9540513990015842</v>
+      </c>
+      <c r="G21">
+        <v>700</v>
+      </c>
+      <c r="H21">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="I21">
+        <v>-1.6409618483746213</v>
+      </c>
+      <c r="J21">
+        <v>1200</v>
+      </c>
+      <c r="K21">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="L21">
+        <v>-1.6479941977820989</v>
+      </c>
+      <c r="Q21">
+        <v>360</v>
+      </c>
+      <c r="R21">
+        <v>-1.0920829610345471</v>
+      </c>
+      <c r="S21">
+        <v>830</v>
+      </c>
+      <c r="T21">
+        <v>-1.3518992411314577</v>
+      </c>
+      <c r="U21">
+        <v>1200</v>
+      </c>
+      <c r="V21">
+        <v>-2.0394157290244403</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>370</v>
+      </c>
+      <c r="E22">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="F22">
+        <v>-0.90110008977718281</v>
+      </c>
+      <c r="G22">
+        <v>730</v>
+      </c>
+      <c r="H22">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="I22">
+        <v>-1.4039465152697206</v>
+      </c>
+      <c r="J22">
+        <v>1250</v>
+      </c>
+      <c r="K22">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="L22">
+        <v>-1.4671916838987784</v>
+      </c>
+      <c r="Q22">
+        <v>370</v>
+      </c>
+      <c r="R22">
+        <v>-1.0175832280464441</v>
+      </c>
+      <c r="S22">
+        <v>850</v>
+      </c>
+      <c r="T22">
+        <v>-1.2117877698285209</v>
+      </c>
+      <c r="U22">
+        <v>1250</v>
+      </c>
+      <c r="V22">
+        <v>-1.8654352106731682</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>380</v>
+      </c>
+      <c r="E23">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="F23">
+        <v>-0.79060438496096541</v>
+      </c>
+      <c r="G23">
+        <v>750</v>
+      </c>
+      <c r="H23">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="I23">
+        <v>-1.3029384613034634</v>
+      </c>
+      <c r="J23">
+        <v>1300</v>
+      </c>
+      <c r="K23">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="L23">
+        <v>-1.5587675080658652</v>
+      </c>
+      <c r="Q23">
+        <v>380</v>
+      </c>
+      <c r="R23">
+        <v>-0.9980072344632408</v>
+      </c>
+      <c r="S23">
+        <v>860</v>
+      </c>
+      <c r="T23">
+        <v>-1.1594029049272989</v>
+      </c>
+      <c r="U23">
+        <v>1300</v>
+      </c>
+      <c r="V23">
+        <v>-1.7122565979357882</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>390</v>
+      </c>
+      <c r="E24">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="F24">
+        <v>-0.82031949669054205</v>
+      </c>
+      <c r="G24">
+        <v>770</v>
+      </c>
+      <c r="H24">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="I24">
+        <v>-1.3309697324985634</v>
+      </c>
+      <c r="J24">
+        <v>1350</v>
+      </c>
+      <c r="K24">
+        <v>-1.5531830563669675</v>
+      </c>
+      <c r="L24">
+        <v>-1.4762628171303875</v>
+      </c>
+      <c r="Q24">
+        <v>390</v>
+      </c>
+      <c r="R24">
+        <v>-0.86968443716549992</v>
+      </c>
+      <c r="S24">
+        <v>870</v>
+      </c>
+      <c r="T24">
+        <v>-1.1736963631034987</v>
+      </c>
+      <c r="U24">
+        <v>1350</v>
+      </c>
+      <c r="V24">
+        <v>-1.5931185777871268</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="F25">
+        <v>-0.96407771596967951</v>
+      </c>
+      <c r="G25">
+        <v>790</v>
+      </c>
+      <c r="H25">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="I25">
+        <v>-1.2239596458163544</v>
+      </c>
+      <c r="J25">
+        <v>1400</v>
+      </c>
+      <c r="K25">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="L25">
+        <v>-1.3339353773226157</v>
+      </c>
+      <c r="Q25">
+        <v>400</v>
+      </c>
+      <c r="R25">
+        <v>-0.76075694118634196</v>
+      </c>
+      <c r="S25">
+        <v>880</v>
+      </c>
+      <c r="T25">
+        <v>-1.1053433969016366</v>
+      </c>
+      <c r="U25">
+        <v>1400</v>
+      </c>
+      <c r="V25">
+        <v>-1.4186660391476635</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>410</v>
+      </c>
+      <c r="E26">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="F26">
+        <v>-0.65806368670598048</v>
+      </c>
+      <c r="G26">
+        <v>810</v>
+      </c>
+      <c r="H26">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="I26">
+        <v>-1.1281094102419715</v>
+      </c>
+      <c r="J26">
+        <v>1450</v>
+      </c>
+      <c r="K26">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="L26">
+        <v>-1.2324300472378502</v>
+      </c>
+      <c r="Q26">
+        <v>410</v>
+      </c>
+      <c r="R26">
+        <v>-0.52812924992645793</v>
+      </c>
+      <c r="S26">
+        <v>890</v>
+      </c>
+      <c r="T26">
+        <v>-1.036789477873779</v>
+      </c>
+      <c r="U26">
+        <v>1450</v>
+      </c>
+      <c r="V26">
+        <v>-1.3004414969839191</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>420</v>
+      </c>
+      <c r="E27">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="F27">
+        <v>-0.61346950927177979</v>
+      </c>
+      <c r="G27">
+        <v>830</v>
+      </c>
+      <c r="H27">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="I27">
+        <v>-1.0234478624244321</v>
+      </c>
+      <c r="J27">
+        <v>1500</v>
+      </c>
+      <c r="K27">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="L27">
+        <v>-1.196686525277751</v>
+      </c>
+      <c r="Q27">
+        <v>420</v>
+      </c>
+      <c r="R27">
+        <v>-0.51062638018675921</v>
+      </c>
+      <c r="S27">
+        <v>900</v>
+      </c>
+      <c r="T27">
+        <v>-1.0162064301304961</v>
+      </c>
+      <c r="U27">
+        <v>1500</v>
+      </c>
+      <c r="V27">
+        <v>-1.2122625653281736</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>430</v>
+      </c>
+      <c r="E28">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="F28">
+        <v>-0.2099231492992002</v>
+      </c>
+      <c r="G28">
+        <v>850</v>
+      </c>
+      <c r="H28">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="I28">
+        <v>-0.86985191319624366</v>
+      </c>
+      <c r="J28">
+        <v>1550</v>
+      </c>
+      <c r="K28">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="L28">
+        <v>-0.96712183355800474</v>
+      </c>
+      <c r="Q28">
+        <v>430</v>
+      </c>
+      <c r="R28">
+        <v>-0.4627118257636898</v>
+      </c>
+      <c r="S28">
+        <v>910</v>
+      </c>
+      <c r="T28">
+        <v>-0.92678033271612237</v>
+      </c>
+      <c r="U28">
+        <v>1550</v>
+      </c>
+      <c r="V28">
+        <v>-1.1164327702221446</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>441</v>
+      </c>
+      <c r="E29">
+        <v>-1.3010299956639799</v>
+      </c>
+      <c r="F29">
+        <v>-0.14224502264754804</v>
+      </c>
+      <c r="G29">
+        <v>860</v>
+      </c>
+      <c r="H29">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="I29">
+        <v>-0.87248709065131425</v>
+      </c>
+      <c r="J29">
+        <v>1600</v>
+      </c>
+      <c r="K29">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="L29">
+        <v>-0.77621286880189588</v>
+      </c>
+      <c r="Q29">
+        <v>440</v>
+      </c>
+      <c r="R29">
+        <v>-0.32081224887574022</v>
+      </c>
+      <c r="S29">
+        <v>920</v>
+      </c>
+      <c r="T29">
+        <v>-0.9508985377564283</v>
+      </c>
+      <c r="U29">
+        <v>1570</v>
+      </c>
+      <c r="V29">
+        <v>-0.96320922493147609</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>450</v>
+      </c>
+      <c r="E30">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="F30">
+        <v>-0.13719675984642626</v>
+      </c>
+      <c r="G30">
+        <v>870</v>
+      </c>
+      <c r="H30">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="I30">
+        <v>-0.95335851047229048</v>
+      </c>
+      <c r="J30">
+        <v>1650</v>
+      </c>
+      <c r="K30">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="L30">
+        <v>-0.60803741943816747</v>
+      </c>
+      <c r="Q30">
+        <v>450</v>
+      </c>
+      <c r="R30">
+        <v>-0.20217234324585209</v>
+      </c>
+      <c r="S30">
+        <v>930</v>
+      </c>
+      <c r="T30">
+        <v>-0.71004385336270304</v>
+      </c>
+      <c r="U30">
+        <v>1590</v>
+      </c>
+      <c r="V30">
+        <v>-0.955624441424758</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>460</v>
+      </c>
+      <c r="E31">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="F31">
+        <v>-0.10450088300546496</v>
+      </c>
+      <c r="G31">
+        <v>880</v>
+      </c>
+      <c r="H31">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="I31">
+        <v>-0.75235924210727656</v>
+      </c>
+      <c r="J31">
+        <v>1681</v>
+      </c>
+      <c r="K31">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="L31">
+        <v>-0.51490696316602169</v>
+      </c>
+      <c r="S31">
+        <v>940</v>
+      </c>
+      <c r="T31">
+        <v>-0.65481046138788124</v>
+      </c>
+      <c r="U31">
+        <v>1600</v>
+      </c>
+      <c r="V31">
+        <v>-0.98769573001100963</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>470</v>
+      </c>
+      <c r="E32">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="F32">
+        <v>-0.11234566128748462</v>
+      </c>
+      <c r="G32">
+        <v>890</v>
+      </c>
+      <c r="H32">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="I32">
+        <v>-0.70265308743703914</v>
+      </c>
+      <c r="J32">
+        <v>1700</v>
+      </c>
+      <c r="K32">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="L32">
+        <v>-0.38226983900389261</v>
+      </c>
+      <c r="S32">
+        <v>950</v>
+      </c>
+      <c r="T32">
+        <v>-0.73848040232765222</v>
+      </c>
+      <c r="U32">
+        <v>1610</v>
+      </c>
+      <c r="V32">
+        <v>-0.83672377007876197</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>480</v>
+      </c>
+      <c r="E33">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="F33">
+        <v>-7.5444913146544959E-2</v>
+      </c>
+      <c r="G33">
+        <v>900</v>
+      </c>
+      <c r="H33">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="I33">
+        <v>-0.62254372241312239</v>
+      </c>
+      <c r="J33">
+        <v>1750</v>
+      </c>
+      <c r="K33">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="L33">
+        <v>-0.23669855262519984</v>
+      </c>
+      <c r="S33">
+        <v>970</v>
+      </c>
+      <c r="T33">
+        <v>-0.57731070635884241</v>
+      </c>
+      <c r="U33">
+        <v>1620</v>
+      </c>
+      <c r="V33">
+        <v>-0.85058271793721041</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>490</v>
+      </c>
+      <c r="E34">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="F34">
+        <v>-0.11136251110606647</v>
+      </c>
+      <c r="G34">
+        <v>910</v>
+      </c>
+      <c r="H34">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="I34">
+        <v>-0.63320058041242777</v>
+      </c>
+      <c r="J34">
+        <v>1800</v>
+      </c>
+      <c r="K34">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="L34">
+        <v>-0.21130047963705906</v>
+      </c>
+      <c r="U34">
+        <v>1630</v>
+      </c>
+      <c r="V34">
+        <v>-0.83336941807666431</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="F35">
+        <v>-9.8195102374381657E-2</v>
+      </c>
+      <c r="G35">
+        <v>920</v>
+      </c>
+      <c r="H35">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="I35">
+        <v>-0.64294865751258057</v>
+      </c>
+      <c r="J35">
+        <v>1850</v>
+      </c>
+      <c r="K35">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="L35">
+        <v>-0.20993363785802793</v>
+      </c>
+      <c r="U35">
+        <v>1640</v>
+      </c>
+      <c r="V35">
+        <v>-0.82568701905732633</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>930</v>
+      </c>
+      <c r="H36">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="I36">
+        <v>-0.58345962616869329</v>
+      </c>
+      <c r="J36">
+        <v>1900</v>
+      </c>
+      <c r="K36">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="L36">
+        <v>-0.20598455261587395</v>
+      </c>
+      <c r="U36">
+        <v>1650</v>
+      </c>
+      <c r="V36">
+        <v>-0.80289756479850027</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>940</v>
+      </c>
+      <c r="H37">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="I37">
+        <v>-0.47202345378291161</v>
+      </c>
+      <c r="U37">
+        <v>1670</v>
+      </c>
+      <c r="V37">
+        <v>-0.7664629193193222</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>950</v>
+      </c>
+      <c r="H38">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="I38">
+        <v>-0.5014243576349473</v>
+      </c>
+      <c r="U38">
+        <v>1700</v>
+      </c>
+      <c r="V38">
+        <v>-0.65792370530275812</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>961</v>
+      </c>
+      <c r="H39">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="I39">
+        <v>-0.44006754679999788</v>
+      </c>
+      <c r="U39">
+        <v>1750</v>
+      </c>
+      <c r="V39">
+        <v>-0.55192347475501735</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>970</v>
+      </c>
+      <c r="H40">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="I40">
+        <v>-0.18823002668475797</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>990</v>
+      </c>
+      <c r="H41">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="I41">
+        <v>-0.20318364666711436</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>1010</v>
+      </c>
+      <c r="H42">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="I42">
+        <v>-0.19920316284723613</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>1050</v>
+      </c>
+      <c r="H43">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="I43">
+        <v>-0.18693524484300048</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1100</v>
+      </c>
+      <c r="H44">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="I44">
+        <v>-0.15116351336297904</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>1150</v>
+      </c>
+      <c r="H45">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="I45">
+        <v>-0.15192251326936429</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F42C29-059B-4F75-A826-35F35DDB2078}">
+  <dimension ref="E2:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>-1.118665944693946</v>
+      </c>
+      <c r="G2">
+        <v>1.2244025042982127</v>
+      </c>
       <c r="I2">
-        <v>-0.1412390301575925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="H3">
+        <v>460</v>
+      </c>
+      <c r="J2">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="K2">
+        <v>0.87015131575544247</v>
+      </c>
+      <c r="M2">
+        <v>810</v>
+      </c>
+      <c r="N2">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="O2">
+        <v>0.91714961154372865</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>210</v>
+      </c>
+      <c r="F3">
+        <v>-1.130056270114052</v>
+      </c>
+      <c r="G3">
+        <v>0.39215752794924602</v>
+      </c>
+      <c r="I3">
+        <v>470</v>
+      </c>
+      <c r="J3">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="K3">
+        <v>0.29125885125303175</v>
+      </c>
+      <c r="M3">
+        <v>830</v>
+      </c>
+      <c r="N3">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="O3">
+        <v>0.41255255804117991</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>-1.1408974442064987</v>
+      </c>
+      <c r="G4">
+        <v>-0.11445924967245837</v>
+      </c>
+      <c r="I4">
+        <v>480</v>
+      </c>
+      <c r="J4">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="K4">
+        <v>-0.12904734164879883</v>
+      </c>
+      <c r="M4">
+        <v>850</v>
+      </c>
+      <c r="N4">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="O4">
+        <v>-0.11619201936667992</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>230</v>
+      </c>
+      <c r="F5">
+        <v>-1.1512396002413157</v>
+      </c>
+      <c r="G5">
+        <v>-0.10840358968429942</v>
+      </c>
+      <c r="I5">
+        <v>490</v>
+      </c>
+      <c r="J5">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="K5">
+        <v>-0.50750918794973665</v>
+      </c>
+      <c r="M5">
+        <v>860</v>
+      </c>
+      <c r="N5">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="O5">
+        <v>-0.47942628947131344</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>240</v>
+      </c>
+      <c r="F6">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="G6">
+        <v>-1.1552215317885783</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="K6">
+        <v>-0.92852622895779968</v>
+      </c>
+      <c r="M6">
+        <v>870</v>
+      </c>
+      <c r="N6">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="O6">
+        <v>-0.43852701023640328</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="G7">
+        <v>-1.262704575260724</v>
+      </c>
+      <c r="I7">
+        <v>510</v>
+      </c>
+      <c r="J7">
+        <v>-1.3341154242617597</v>
+      </c>
+      <c r="K7">
+        <v>-1.0549479739696002</v>
+      </c>
+      <c r="M7">
+        <v>880</v>
+      </c>
+      <c r="N7">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="O7">
+        <v>-0.76053695347573735</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>260</v>
+      </c>
+      <c r="F8">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="G8">
+        <v>-1.2714319586806695</v>
+      </c>
+      <c r="I8">
+        <v>520</v>
+      </c>
+      <c r="J8">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="K8">
+        <v>-1.1650110471572781</v>
+      </c>
+      <c r="M8">
+        <v>890</v>
+      </c>
+      <c r="N8">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="O8">
+        <v>-1.1358958520389901</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="G9">
+        <v>-1.5310079735640278</v>
+      </c>
+      <c r="I9">
+        <v>540</v>
+      </c>
+      <c r="J9">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="K9">
+        <v>-1.4641948151756667</v>
+      </c>
+      <c r="M9">
+        <v>900</v>
+      </c>
+      <c r="N9">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="O9">
+        <v>-1.2019238497987534</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
         <v>280</v>
       </c>
+      <c r="F10">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="G10">
+        <v>-1.480171204048998</v>
+      </c>
+      <c r="I10">
+        <v>550</v>
+      </c>
+      <c r="J10">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="K10">
+        <v>-1.5457305455272667</v>
+      </c>
+      <c r="M10">
+        <v>910</v>
+      </c>
+      <c r="N10">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="O10">
+        <v>-1.3492927821339962</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>290</v>
+      </c>
+      <c r="F11">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="G11">
+        <v>-1.6014267111705838</v>
+      </c>
+      <c r="I11">
+        <v>560</v>
+      </c>
+      <c r="J11">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="K11">
+        <v>-1.8201003578361907</v>
+      </c>
+      <c r="M11">
+        <v>920</v>
+      </c>
+      <c r="N11">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="O11">
+        <v>-1.5185854034128845</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="G12">
+        <v>-1.545709262583906</v>
+      </c>
+      <c r="I12">
+        <v>570</v>
+      </c>
+      <c r="J12">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="K12">
+        <v>-1.7561869430186261</v>
+      </c>
+      <c r="M12">
+        <v>930</v>
+      </c>
+      <c r="N12">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="O12">
+        <v>-1.7804499882196496</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>310</v>
+      </c>
+      <c r="F13">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="G13">
+        <v>-1.461963991836968</v>
+      </c>
+      <c r="I13">
+        <v>580</v>
+      </c>
+      <c r="J13">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="K13">
+        <v>-1.7707479498494649</v>
+      </c>
+      <c r="M13">
+        <v>940</v>
+      </c>
+      <c r="N13">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="O13">
+        <v>-1.8248794870039928</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>320</v>
+      </c>
+      <c r="F14">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="G14">
+        <v>-1.4692615475408031</v>
+      </c>
+      <c r="I14">
+        <v>590</v>
+      </c>
+      <c r="J14">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="K14">
+        <v>-1.7330059596975591</v>
+      </c>
+      <c r="M14">
+        <v>950</v>
+      </c>
+      <c r="N14">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="O14">
+        <v>-1.9453974200971704</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>330</v>
+      </c>
+      <c r="F15">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="G15">
+        <v>-1.3527011475704858</v>
+      </c>
+      <c r="I15">
+        <v>600</v>
+      </c>
+      <c r="J15">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="K15">
+        <v>-1.7283681075076733</v>
+      </c>
+      <c r="M15">
+        <v>970</v>
+      </c>
+      <c r="N15">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="O15">
+        <v>-1.8921350080816499</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>340</v>
+      </c>
+      <c r="F16">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="G16">
+        <v>-1.111555930123409</v>
+      </c>
+      <c r="I16">
+        <v>610</v>
+      </c>
+      <c r="J16">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="K16">
+        <v>-1.7535846946618314</v>
+      </c>
+      <c r="M16">
+        <v>990</v>
+      </c>
+      <c r="N16">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="O16">
+        <v>-2.0620680788352965</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>350</v>
+      </c>
+      <c r="F17">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="G17">
+        <v>-1.0970573880838852</v>
+      </c>
+      <c r="I17">
+        <v>620</v>
+      </c>
+      <c r="J17">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="K17">
+        <v>-1.8035932634685068</v>
+      </c>
+      <c r="M17">
+        <v>1010</v>
+      </c>
+      <c r="N17">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="O17">
+        <v>-2.0745126844113395</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>360</v>
+      </c>
+      <c r="F18">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="G18">
+        <v>-1.0341016097507847</v>
+      </c>
+      <c r="I18">
+        <v>630</v>
+      </c>
+      <c r="J18">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="K18">
+        <v>-1.8140584479701973</v>
+      </c>
+      <c r="M18">
+        <v>1050</v>
+      </c>
+      <c r="N18">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="O18">
+        <v>-2.0160973463675873</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>370</v>
+      </c>
+      <c r="F19">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="G19">
+        <v>-0.92500495187065146</v>
+      </c>
+      <c r="I19">
+        <v>650</v>
+      </c>
+      <c r="J19">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="K19">
+        <v>-1.7012935713830983</v>
+      </c>
+      <c r="M19">
+        <v>1100</v>
+      </c>
+      <c r="N19">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="O19">
+        <v>-2.0483899870142084</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>380</v>
+      </c>
+      <c r="F20">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="G20">
+        <v>-0.76583314789633627</v>
+      </c>
+      <c r="I20">
+        <v>700</v>
+      </c>
+      <c r="J20">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="K20">
+        <v>-1.6393571431784428</v>
+      </c>
+      <c r="M20">
+        <v>1150</v>
+      </c>
+      <c r="N20">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="O20">
+        <v>-1.85246266081122</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>390</v>
+      </c>
+      <c r="F21">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="G21">
+        <v>-0.84339455332114099</v>
+      </c>
+      <c r="I21">
+        <v>730</v>
+      </c>
+      <c r="J21">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="K21">
+        <v>-1.3725239901551811</v>
+      </c>
+      <c r="M21">
+        <v>1200</v>
+      </c>
+      <c r="N21">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="O21">
+        <v>-1.7603565298234416</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>400</v>
+      </c>
+      <c r="F22">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="G22">
+        <v>-0.90309977856752888</v>
+      </c>
+      <c r="I22">
+        <v>750</v>
+      </c>
+      <c r="J22">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="K22">
+        <v>-1.1986071566741854</v>
+      </c>
+      <c r="M22">
+        <v>1250</v>
+      </c>
+      <c r="N22">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="O22">
+        <v>-1.5366128593305375</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>410</v>
+      </c>
+      <c r="F23">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="G23">
+        <v>-0.60144954289641872</v>
+      </c>
+      <c r="I23">
+        <v>770</v>
+      </c>
+      <c r="J23">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="K23">
+        <v>-1.3070247283391365</v>
+      </c>
+      <c r="M23">
+        <v>1300</v>
+      </c>
+      <c r="N23">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="O23">
+        <v>-1.5639749172171911</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>420</v>
+      </c>
+      <c r="F24">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="G24">
+        <v>-0.66102993260912513</v>
+      </c>
+      <c r="I24">
+        <v>790</v>
+      </c>
+      <c r="J24">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="K24">
+        <v>-1.189665503669513</v>
+      </c>
+      <c r="M24">
+        <v>1350</v>
+      </c>
+      <c r="N24">
+        <v>-1.5531830563669675</v>
+      </c>
+      <c r="O24">
+        <v>-1.4429746929968361</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>430</v>
+      </c>
+      <c r="F25">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="G25">
+        <v>-0.25325030590859204</v>
+      </c>
+      <c r="I25">
+        <v>810</v>
+      </c>
+      <c r="J25">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="K25">
+        <v>-1.1150175737061947</v>
+      </c>
+      <c r="M25">
+        <v>1400</v>
+      </c>
+      <c r="N25">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="O25">
+        <v>-1.2720614898892708</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>441</v>
+      </c>
+      <c r="F26">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G26">
+        <v>-0.2132837643737229</v>
+      </c>
+      <c r="I26">
+        <v>830</v>
+      </c>
+      <c r="J26">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="K26">
+        <v>-0.9735110742326567</v>
+      </c>
+      <c r="M26">
+        <v>1450</v>
+      </c>
+      <c r="N26">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="O26">
+        <v>-1.1815397824194425</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>450</v>
+      </c>
+      <c r="F27">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="G27">
+        <v>-0.21281134003287769</v>
+      </c>
+      <c r="I27">
+        <v>850</v>
+      </c>
+      <c r="J27">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="K27">
+        <v>-0.85512297092641498</v>
+      </c>
+      <c r="M27">
+        <v>1500</v>
+      </c>
+      <c r="N27">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="O27">
+        <v>-1.1530903292963472</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>460</v>
+      </c>
+      <c r="F28">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="G28">
+        <v>-0.13489574616085256</v>
+      </c>
+      <c r="I28">
+        <v>860</v>
+      </c>
+      <c r="J28">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="K28">
+        <v>-0.82402082627666295</v>
+      </c>
+      <c r="M28">
+        <v>1550</v>
+      </c>
+      <c r="N28">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="O28">
+        <v>-0.92198890812628598</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>470</v>
+      </c>
+      <c r="F29">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="G29">
+        <v>-0.17354459354624641</v>
+      </c>
+      <c r="I29">
+        <v>900</v>
+      </c>
+      <c r="J29">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="K29">
+        <v>-0.57883160202393813</v>
+      </c>
+      <c r="M29">
+        <v>1600</v>
+      </c>
+      <c r="N29">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="O29">
+        <v>-0.73774650868456459</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>480</v>
+      </c>
+      <c r="F30">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="G30">
+        <v>-0.17051647025180663</v>
+      </c>
+      <c r="I30">
+        <v>930</v>
+      </c>
+      <c r="J30">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="K30">
+        <v>-0.58185537741929105</v>
+      </c>
+      <c r="M30">
+        <v>1650</v>
+      </c>
+      <c r="N30">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="O30">
+        <v>-0.61602513024686678</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>490</v>
+      </c>
+      <c r="F31">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="G31">
+        <v>-0.18379032916734153</v>
+      </c>
+      <c r="I31">
+        <v>961</v>
+      </c>
+      <c r="J31">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="K31">
+        <v>-0.48551994193594761</v>
+      </c>
+      <c r="M31">
+        <v>1681</v>
+      </c>
+      <c r="N31">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="O31">
+        <v>-0.51651613391440976</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>970</v>
+      </c>
+      <c r="J32">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="K32">
+        <v>-0.21453269761171861</v>
+      </c>
+      <c r="M32">
+        <v>1700</v>
+      </c>
+      <c r="N32">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="O32">
+        <v>-0.36171555638244374</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>990</v>
+      </c>
+      <c r="J33">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="K33">
+        <v>-0.24815801255796313</v>
+      </c>
+      <c r="M33">
+        <v>1750</v>
+      </c>
+      <c r="N33">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="O33">
+        <v>-0.2775757029196057</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1010</v>
+      </c>
+      <c r="J34">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="K34">
+        <v>-0.26910421496845105</v>
+      </c>
+      <c r="M34">
+        <v>1800</v>
+      </c>
+      <c r="N34">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="O34">
+        <v>-0.24126981805052872</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>1050</v>
+      </c>
+      <c r="J35">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="K35">
+        <v>-0.22676285195988713</v>
+      </c>
+      <c r="M35">
+        <v>1850</v>
+      </c>
+      <c r="N35">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="O35">
+        <v>-0.24463844722140951</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>1100</v>
+      </c>
+      <c r="J36">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="K36">
+        <v>-0.22590369715052439</v>
+      </c>
+      <c r="M36">
+        <v>1900</v>
+      </c>
+      <c r="N36">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="O36">
+        <v>-0.23503897551808556</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1150</v>
+      </c>
+      <c r="J37">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="K37">
+        <v>-0.20034100874678451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72413505-3401-4218-B78C-5C453F1188E3}">
+  <dimension ref="E1:O32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>240</v>
+      </c>
+      <c r="F1">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="G1">
+        <v>0.15869993430253934</v>
+      </c>
+      <c r="I1">
+        <v>520</v>
+      </c>
+      <c r="J1">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="K1">
+        <v>-0.29645555673033719</v>
+      </c>
+      <c r="M1">
+        <v>890</v>
+      </c>
+      <c r="N1">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="O1">
+        <v>-0.29974532662406012</v>
+      </c>
+    </row>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="G2">
+        <v>-0.71473025545102187</v>
+      </c>
+      <c r="I2">
+        <v>530</v>
+      </c>
+      <c r="J2">
+        <v>-1.3428514112607162</v>
+      </c>
+      <c r="K2">
+        <v>-0.79325894268508079</v>
+      </c>
+      <c r="M2">
+        <v>900</v>
+      </c>
+      <c r="N2">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="O2">
+        <v>-0.59336972296482782</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>260</v>
+      </c>
+      <c r="F3">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="G3">
+        <v>-0.93814325097989748</v>
+      </c>
       <c r="I3">
-        <v>0.11934719417138274</v>
+        <v>540</v>
+      </c>
+      <c r="J3">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="K3">
+        <v>-0.79361851350423029</v>
+      </c>
+      <c r="M3">
+        <v>910</v>
+      </c>
+      <c r="N3">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="O3">
+        <v>-0.64683429595398123</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="G4">
+        <v>-1.444799801779757</v>
+      </c>
+      <c r="I4">
+        <v>550</v>
+      </c>
+      <c r="J4">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="K4">
+        <v>-1.0940122645148722</v>
+      </c>
+      <c r="M4">
+        <v>920</v>
+      </c>
+      <c r="N4">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="O4">
+        <v>-0.88635011029920718</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="G5">
+        <v>-1.5052870642444145</v>
+      </c>
+      <c r="I5">
+        <v>560</v>
+      </c>
+      <c r="J5">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="K5">
+        <v>-1.4349255849114406</v>
+      </c>
+      <c r="M5">
+        <v>930</v>
+      </c>
+      <c r="N5">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="O5">
+        <v>-1.3050556738356103</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>290</v>
+      </c>
+      <c r="F6">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="G6">
+        <v>-1.6224065784229391</v>
+      </c>
+      <c r="I6">
+        <v>570</v>
+      </c>
+      <c r="J6">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="K6">
+        <v>-1.43877366430302</v>
+      </c>
+      <c r="M6">
+        <v>940</v>
+      </c>
+      <c r="N6">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="O6">
+        <v>-1.4601999479007679</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="G7">
+        <v>-1.5678556853536698</v>
+      </c>
+      <c r="I7">
+        <v>580</v>
+      </c>
+      <c r="J7">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="K7">
+        <v>-1.6935772588701912</v>
+      </c>
+      <c r="M7">
+        <v>950</v>
+      </c>
+      <c r="N7">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="O7">
+        <v>-1.7012875865604169</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>310</v>
+      </c>
+      <c r="F8">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="G8">
+        <v>-1.5304776935793316</v>
+      </c>
+      <c r="I8">
+        <v>590</v>
+      </c>
+      <c r="J8">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="K8">
+        <v>-1.6537678177639952</v>
+      </c>
+      <c r="M8">
+        <v>970</v>
+      </c>
+      <c r="N8">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="O8">
+        <v>-1.6602084261872287</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>320</v>
+      </c>
+      <c r="F9">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="G9">
+        <v>-1.4290804555904684</v>
+      </c>
+      <c r="I9">
+        <v>600</v>
+      </c>
+      <c r="J9">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="K9">
+        <v>-1.7317184224021489</v>
+      </c>
+      <c r="M9">
+        <v>990</v>
+      </c>
+      <c r="N9">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="O9">
+        <v>-1.9307100018203411</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>330</v>
+      </c>
+      <c r="F10">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="G10">
+        <v>-1.4063844677070507</v>
+      </c>
+      <c r="I10">
+        <v>610</v>
+      </c>
+      <c r="J10">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="K10">
+        <v>-1.7201081613243641</v>
+      </c>
+      <c r="M10">
+        <v>1010</v>
+      </c>
+      <c r="N10">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="O10">
+        <v>-2.012166040633403</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>340</v>
+      </c>
+      <c r="F11">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="G11">
+        <v>-1.1788209482664167</v>
+      </c>
+      <c r="I11">
+        <v>620</v>
+      </c>
+      <c r="J11">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="K11">
+        <v>-1.7923785578549547</v>
+      </c>
+      <c r="M11">
+        <v>1050</v>
+      </c>
+      <c r="N11">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="O11">
+        <v>-1.9969882014941855</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>350</v>
+      </c>
+      <c r="F12">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="G12">
+        <v>-1.1632375250938181</v>
+      </c>
+      <c r="I12">
+        <v>630</v>
+      </c>
+      <c r="J12">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="K12">
+        <v>-1.847334850994089</v>
+      </c>
+      <c r="M12">
+        <v>1100</v>
+      </c>
+      <c r="N12">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="O12">
+        <v>-2.0114841763834037</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>360</v>
+      </c>
+      <c r="F13">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="G13">
+        <v>-1.0132520734819885</v>
+      </c>
+      <c r="I13">
+        <v>650</v>
+      </c>
+      <c r="J13">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="K13">
+        <v>-1.688023974963742</v>
+      </c>
+      <c r="M13">
+        <v>1150</v>
+      </c>
+      <c r="N13">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="O13">
+        <v>-1.9181753088686724</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>370</v>
+      </c>
+      <c r="F14">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="G14">
+        <v>-0.99050356805358208</v>
+      </c>
+      <c r="I14">
+        <v>700</v>
+      </c>
+      <c r="J14">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="K14">
+        <v>-1.6881682632783985</v>
+      </c>
+      <c r="M14">
+        <v>1200</v>
+      </c>
+      <c r="N14">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="O14">
+        <v>-1.650398885626444</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>380</v>
+      </c>
+      <c r="F15">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="G15">
+        <v>-0.88071589241641335</v>
+      </c>
+      <c r="I15">
+        <v>730</v>
+      </c>
+      <c r="J15">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="K15">
+        <v>-1.3041893368736883</v>
+      </c>
+      <c r="M15">
+        <v>1250</v>
+      </c>
+      <c r="N15">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="O15">
+        <v>-1.4539368233396677</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>390</v>
+      </c>
+      <c r="F16">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="G16">
+        <v>-0.88457295860157659</v>
+      </c>
+      <c r="I16">
+        <v>750</v>
+      </c>
+      <c r="J16">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="K16">
+        <v>-1.0693772353582214</v>
+      </c>
+      <c r="M16">
+        <v>1300</v>
+      </c>
+      <c r="N16">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="O16">
+        <v>-1.5837706535297176</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="G17">
+        <v>-0.92482251279120742</v>
+      </c>
+      <c r="I17">
+        <v>770</v>
+      </c>
+      <c r="J17">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="K17">
+        <v>-1.3176125133489105</v>
+      </c>
+      <c r="M17">
+        <v>1350</v>
+      </c>
+      <c r="N17">
+        <v>-1.55318305636697</v>
+      </c>
+      <c r="O17">
+        <v>-1.420292854451098</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>410</v>
+      </c>
+      <c r="F18">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="G18">
+        <v>-0.63333552204858223</v>
+      </c>
+      <c r="I18">
+        <v>790</v>
+      </c>
+      <c r="J18">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="K18">
+        <v>-1.2371458289351169</v>
+      </c>
+      <c r="M18">
+        <v>1400</v>
+      </c>
+      <c r="N18">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="O18">
+        <v>-1.2858418577231638</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>420</v>
+      </c>
+      <c r="F19">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="G19">
+        <v>-0.63360197573846389</v>
+      </c>
+      <c r="I19">
+        <v>810</v>
+      </c>
+      <c r="J19">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="K19">
+        <v>-1.1177060278595279</v>
+      </c>
+      <c r="M19">
+        <v>1450</v>
+      </c>
+      <c r="N19">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="O19">
+        <v>-1.2176512589775534</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>430</v>
+      </c>
+      <c r="F20">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="G20">
+        <v>-0.27783118115489758</v>
+      </c>
+      <c r="I20">
+        <v>830</v>
+      </c>
+      <c r="J20">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="K20">
+        <v>-1.0321364773274468</v>
+      </c>
+      <c r="M20">
+        <v>1500</v>
+      </c>
+      <c r="N20">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="O20">
+        <v>-1.1708333089841065</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>441</v>
+      </c>
+      <c r="F21">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G21">
+        <v>-0.23950718834377005</v>
+      </c>
+      <c r="I21">
+        <v>850</v>
+      </c>
+      <c r="J21">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="K21">
+        <v>-0.93495265866903188</v>
+      </c>
+      <c r="M21">
+        <v>1550</v>
+      </c>
+      <c r="N21">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="O21">
+        <v>-0.95738987685875199</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>450</v>
+      </c>
+      <c r="F22">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="G22">
+        <v>-0.25244932587276203</v>
+      </c>
+      <c r="I22">
+        <v>880</v>
+      </c>
+      <c r="J22">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="K22">
+        <v>-0.65945633607185383</v>
+      </c>
+      <c r="M22">
+        <v>1600</v>
+      </c>
+      <c r="N22">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="O22">
+        <v>-0.75360695999207128</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>460</v>
+      </c>
+      <c r="F23">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="G23">
+        <v>-0.10371951765572759</v>
+      </c>
+      <c r="I23">
+        <v>900</v>
+      </c>
+      <c r="J23">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="K23">
+        <v>-0.47066659301022745</v>
+      </c>
+      <c r="M23">
+        <v>1650</v>
+      </c>
+      <c r="N23">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="O23">
+        <v>-0.60230190874795686</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>470</v>
+      </c>
+      <c r="F24">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="G24">
+        <v>-0.27754291335053277</v>
+      </c>
+      <c r="I24">
+        <v>930</v>
+      </c>
+      <c r="J24">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="K24">
+        <v>-0.51617539747396124</v>
+      </c>
+      <c r="M24">
+        <v>1681</v>
+      </c>
+      <c r="N24">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="O24">
+        <v>-0.46320546632324716</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>480</v>
+      </c>
+      <c r="F25">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="G25">
+        <v>-0.14207555387432122</v>
+      </c>
+      <c r="I25">
+        <v>950</v>
+      </c>
+      <c r="J25">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="K25">
+        <v>-0.41518606943342401</v>
+      </c>
+      <c r="M25">
+        <v>1700</v>
+      </c>
+      <c r="N25">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="O25">
+        <v>-0.3400877937341143</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>490</v>
+      </c>
+      <c r="F26">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="G26">
+        <v>-0.18925125225068642</v>
+      </c>
+      <c r="I26">
+        <v>961</v>
+      </c>
+      <c r="J26">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="K26">
+        <v>-0.49767728103188907</v>
+      </c>
+      <c r="M26">
+        <v>1750</v>
+      </c>
+      <c r="N26">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="O26">
+        <v>-0.30506938684569201</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="G27">
+        <v>-0.13558482367141247</v>
+      </c>
+      <c r="I27">
+        <v>970</v>
+      </c>
+      <c r="J27">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="K27">
+        <v>-0.28294344492189322</v>
+      </c>
+      <c r="M27">
+        <v>1800</v>
+      </c>
+      <c r="N27">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="O27">
+        <v>-0.26186557974086855</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>990</v>
+      </c>
+      <c r="J28">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="K28">
+        <v>-0.26195742032386338</v>
+      </c>
+      <c r="M28">
+        <v>1850</v>
+      </c>
+      <c r="N28">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="O28">
+        <v>-0.26132060496061948</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1010</v>
+      </c>
+      <c r="J29">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="K29">
+        <v>-0.29738764869809636</v>
+      </c>
+      <c r="M29">
+        <v>1900</v>
+      </c>
+      <c r="N29">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="O29">
+        <v>-0.22826147313094358</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1050</v>
+      </c>
+      <c r="J30">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="K30">
+        <v>-0.26905038002832077</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1100</v>
+      </c>
+      <c r="J31">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="K31">
+        <v>-0.21554139710194142</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1150</v>
+      </c>
+      <c r="J32">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="K32">
+        <v>-0.19796424750795891</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F004A-6034-4347-B61C-B99E41892E35}">
+  <dimension ref="E2:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>240</v>
+      </c>
+      <c r="F2">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="G2">
+        <v>0.23213616677495502</v>
+      </c>
+      <c r="I2">
+        <v>510</v>
+      </c>
+      <c r="J2">
+        <v>-1.3341154242617597</v>
+      </c>
+      <c r="K2">
+        <v>0.16658259292319089</v>
+      </c>
+      <c r="M2">
+        <v>880</v>
+      </c>
+      <c r="N2">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="O2">
+        <v>0.21517197273991753</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="G3">
+        <v>-0.52128343719488124</v>
+      </c>
+      <c r="I3">
+        <v>520</v>
+      </c>
+      <c r="J3">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="K3">
+        <v>-0.54012106395532478</v>
+      </c>
+      <c r="M3">
+        <v>890</v>
+      </c>
+      <c r="N3">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="O3">
+        <v>-1.1849013441637923E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>260</v>
+      </c>
+      <c r="F4">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="G4">
+        <v>-0.72316025567644959</v>
+      </c>
+      <c r="I4">
+        <v>530</v>
+      </c>
+      <c r="J4">
+        <v>-1.3428514112607162</v>
+      </c>
+      <c r="K4">
+        <v>-0.68925877874901698</v>
+      </c>
+      <c r="M4">
+        <v>900</v>
+      </c>
+      <c r="N4">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="O4">
+        <v>6.3177081303488897E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="G5">
+        <v>-1.1240046971754312</v>
+      </c>
+      <c r="I5">
+        <v>540</v>
+      </c>
+      <c r="J5">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="K5">
+        <v>-1.1583115217100406</v>
+      </c>
+      <c r="M5">
+        <v>910</v>
+      </c>
+      <c r="N5">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="O5">
+        <v>-0.53866912847636195</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>280</v>
+      </c>
+      <c r="F6">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="G6">
+        <v>-1.2429678771362376</v>
+      </c>
+      <c r="I6">
+        <v>550</v>
+      </c>
+      <c r="J6">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="K6">
+        <v>-1.0711593274800133</v>
+      </c>
+      <c r="M6">
+        <v>920</v>
+      </c>
+      <c r="N6">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="O6">
+        <v>-0.74832276581266632</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>290</v>
+      </c>
+      <c r="F7">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="G7">
+        <v>-1.3946504246495783</v>
+      </c>
+      <c r="I7">
+        <v>560</v>
+      </c>
+      <c r="J7">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="K7">
+        <v>-1.343620356395256</v>
+      </c>
+      <c r="M7">
+        <v>930</v>
+      </c>
+      <c r="N7">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="O7">
+        <v>-1.0909377205662412</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="G8">
+        <v>-1.4060884988876632</v>
+      </c>
+      <c r="I8">
+        <v>570</v>
+      </c>
+      <c r="J8">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="K8">
+        <v>-1.593629846508241</v>
+      </c>
+      <c r="M8">
+        <v>940</v>
+      </c>
+      <c r="N8">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="O8">
+        <v>-1.2824452941837201</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>310</v>
+      </c>
+      <c r="F9">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="G9">
+        <v>-1.4966483632923386</v>
+      </c>
+      <c r="I9">
+        <v>580</v>
+      </c>
+      <c r="J9">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="K9">
+        <v>-1.6863361387132578</v>
+      </c>
+      <c r="M9">
+        <v>950</v>
+      </c>
+      <c r="N9">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="O9">
+        <v>-1.3756258887958197</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>320</v>
+      </c>
+      <c r="F10">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="G10">
+        <v>-1.4022650150199272</v>
+      </c>
+      <c r="I10">
+        <v>590</v>
+      </c>
+      <c r="J10">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="K10">
+        <v>-1.600506968504555</v>
+      </c>
+      <c r="M10">
+        <v>970</v>
+      </c>
+      <c r="N10">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="O10">
+        <v>-1.6590581775564293</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>330</v>
+      </c>
+      <c r="F11">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="G11">
+        <v>-1.4202827755880572</v>
+      </c>
+      <c r="I11">
+        <v>600</v>
+      </c>
+      <c r="J11">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="K11">
+        <v>-1.6954487869329906</v>
+      </c>
+      <c r="M11">
+        <v>990</v>
+      </c>
+      <c r="N11">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="O11">
+        <v>-1.7995352186025566</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>340</v>
+      </c>
+      <c r="F12">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="G12">
+        <v>-1.115155523397021</v>
+      </c>
+      <c r="I12">
+        <v>610</v>
+      </c>
+      <c r="J12">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="K12">
+        <v>-1.7287871289848218</v>
+      </c>
+      <c r="M12">
+        <v>1010</v>
+      </c>
+      <c r="N12">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="O12">
+        <v>-1.9762868758402476</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>350</v>
+      </c>
+      <c r="F13">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="G13">
+        <v>-1.0842385153742602</v>
+      </c>
+      <c r="I13">
+        <v>620</v>
+      </c>
+      <c r="J13">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="K13">
+        <v>-1.7631046921238493</v>
+      </c>
+      <c r="M13">
+        <v>1050</v>
+      </c>
+      <c r="N13">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="O13">
+        <v>-2.0027996206174619</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>360</v>
+      </c>
+      <c r="F14">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="G14">
+        <v>-1.387812262806239</v>
+      </c>
+      <c r="I14">
+        <v>630</v>
+      </c>
+      <c r="J14">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="K14">
+        <v>-1.7515243366519884</v>
+      </c>
+      <c r="M14">
+        <v>1100</v>
+      </c>
+      <c r="N14">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="O14">
+        <v>-2.0118717408138882</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>370</v>
+      </c>
+      <c r="F15">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="G15">
+        <v>-0.94800906468887247</v>
+      </c>
+      <c r="I15">
+        <v>650</v>
+      </c>
+      <c r="J15">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="K15">
+        <v>-1.6736295586653427</v>
+      </c>
+      <c r="M15">
+        <v>1150</v>
+      </c>
+      <c r="N15">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="O15">
+        <v>-1.974718618137367</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>380</v>
+      </c>
+      <c r="F16">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="G16">
+        <v>-1.1215123588245477</v>
+      </c>
+      <c r="I16">
+        <v>700</v>
+      </c>
+      <c r="J16">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="K16">
+        <v>-1.6202049853035494</v>
+      </c>
+      <c r="M16">
+        <v>1200</v>
+      </c>
+      <c r="N16">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="O16">
+        <v>-1.9305844980770024</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>390</v>
+      </c>
+      <c r="F17">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="G17">
+        <v>-0.90359114437527965</v>
+      </c>
+      <c r="I17">
+        <v>730</v>
+      </c>
+      <c r="J17">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="K17">
+        <v>-1.6282932057073503</v>
+      </c>
+      <c r="M17">
+        <v>1250</v>
+      </c>
+      <c r="N17">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="O17">
+        <v>-1.7531223239984195</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>400</v>
+      </c>
+      <c r="F18">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="G18">
+        <v>-0.98512600892994129</v>
+      </c>
+      <c r="I18">
+        <v>750</v>
+      </c>
+      <c r="J18">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="K18">
+        <v>-1.1274267521461372</v>
+      </c>
+      <c r="M18">
+        <v>1300</v>
+      </c>
+      <c r="N18">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="O18">
+        <v>-1.6395556379684038</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>410</v>
+      </c>
+      <c r="F19">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="G19">
+        <v>-0.75863463316643476</v>
+      </c>
+      <c r="I19">
+        <v>770</v>
+      </c>
+      <c r="J19">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="K19">
+        <v>-1.488910052270195</v>
+      </c>
+      <c r="M19">
+        <v>1350</v>
+      </c>
+      <c r="N19">
+        <v>-1.5531830563669675</v>
+      </c>
+      <c r="O19">
+        <v>-1.4940308931272277</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>420</v>
+      </c>
+      <c r="F20">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="G20">
+        <v>-0.80855072211876711</v>
+      </c>
+      <c r="I20">
+        <v>790</v>
+      </c>
+      <c r="J20">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="K20">
+        <v>-1.1932155949554604</v>
+      </c>
+      <c r="M20">
+        <v>1400</v>
+      </c>
+      <c r="N20">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="O20">
+        <v>-1.463500567329421</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>430</v>
+      </c>
+      <c r="F21">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="G21">
+        <v>-0.40879908834567513</v>
+      </c>
+      <c r="I21">
+        <v>810</v>
+      </c>
+      <c r="J21">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="K21">
+        <v>-1.2449854264974494</v>
+      </c>
+      <c r="M21">
+        <v>1450</v>
+      </c>
+      <c r="N21">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="O21">
+        <v>-1.1451575312915423</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>441</v>
+      </c>
+      <c r="F22">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G22">
+        <v>-0.35512229433800818</v>
+      </c>
+      <c r="I22">
+        <v>830</v>
+      </c>
+      <c r="J22">
+        <v>-1.4441966253113903</v>
+      </c>
+      <c r="K22">
+        <v>-0.92088041033024837</v>
+      </c>
+      <c r="M22">
+        <v>1500</v>
+      </c>
+      <c r="N22">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="O22">
+        <v>-1.1596116868796142</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>450</v>
+      </c>
+      <c r="F23">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="G23">
+        <v>-0.2927365739038395</v>
+      </c>
+      <c r="I23">
+        <v>850</v>
+      </c>
+      <c r="J23">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="K23">
+        <v>-1.1787222738160839</v>
+      </c>
+      <c r="M23">
+        <v>1550</v>
+      </c>
+      <c r="N23">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="O23">
+        <v>-1.0610976953985316</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>460</v>
+      </c>
+      <c r="F24">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="G24">
+        <v>-0.25332868901411071</v>
+      </c>
+      <c r="I24">
+        <v>870</v>
+      </c>
+      <c r="J24">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="K24">
+        <v>-1.0210423217087543</v>
+      </c>
+      <c r="M24">
+        <v>1600</v>
+      </c>
+      <c r="N24">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="O24">
+        <v>-0.93371321084119829</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>470</v>
+      </c>
+      <c r="F25">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="G25">
+        <v>-0.3234401916691117</v>
+      </c>
+      <c r="I25">
+        <v>930</v>
+      </c>
+      <c r="J25">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="K25">
+        <v>-0.68891375046574432</v>
+      </c>
+      <c r="M25">
+        <v>1650</v>
+      </c>
+      <c r="N25">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="O25">
+        <v>-0.76446554655428112</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>480</v>
+      </c>
+      <c r="F26">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="G26">
+        <v>-0.34959047637729751</v>
+      </c>
+      <c r="I26">
+        <v>961</v>
+      </c>
+      <c r="J26">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="K26">
+        <v>-0.49551695749516156</v>
+      </c>
+      <c r="M26">
+        <v>1681</v>
+      </c>
+      <c r="N26">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="O26">
+        <v>-0.66890576211592978</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>490</v>
+      </c>
+      <c r="F27">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="G27">
+        <v>-0.14888224308426168</v>
+      </c>
+      <c r="I27">
+        <v>990</v>
+      </c>
+      <c r="J27">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="K27">
+        <v>-0.27700407802025662</v>
+      </c>
+      <c r="M27">
+        <v>1700</v>
+      </c>
+      <c r="N27">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="O27">
+        <v>-0.53492842351642655</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="G28">
+        <v>-0.28345091678201861</v>
+      </c>
+      <c r="I28">
+        <v>1010</v>
+      </c>
+      <c r="J28">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="K28">
+        <v>-0.27614042602799216</v>
+      </c>
+      <c r="M28">
+        <v>1750</v>
+      </c>
+      <c r="N28">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="O28">
+        <v>-0.37766693049664063</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>1050</v>
+      </c>
+      <c r="J29">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="K29">
+        <v>-0.26157076021260273</v>
+      </c>
+      <c r="M29">
+        <v>1800</v>
+      </c>
+      <c r="N29">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="O29">
+        <v>-0.33770600623327518</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>1100</v>
+      </c>
+      <c r="J30">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="K30">
+        <v>-0.24416250335201686</v>
+      </c>
+      <c r="M30">
+        <v>1850</v>
+      </c>
+      <c r="N30">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="O30">
+        <v>-0.40216086188692379</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1150</v>
+      </c>
+      <c r="J31">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="K31">
+        <v>-0.25899763457582503</v>
+      </c>
+      <c r="M31">
+        <v>1900</v>
+      </c>
+      <c r="N31">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="O31">
+        <v>-0.33824917186578263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082646B6-F4B7-42E7-AFE4-ACC4B802B439}">
+  <dimension ref="E2:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>-1.118665944693946</v>
+      </c>
+      <c r="G2">
+        <v>1.2389218500298633</v>
+      </c>
+      <c r="I2">
+        <v>480</v>
+      </c>
+      <c r="J2">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="K2">
+        <v>9.5117403488404612E-2</v>
+      </c>
+      <c r="M2">
+        <v>850</v>
+      </c>
+      <c r="N2">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="O2">
+        <v>4.1445033634386265E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>210</v>
+      </c>
+      <c r="F3">
+        <v>-1.130056270114052</v>
+      </c>
+      <c r="G3">
+        <v>0.80079836999864651</v>
+      </c>
+      <c r="I3">
+        <v>490</v>
+      </c>
+      <c r="J3">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="K3">
+        <v>-0.37435713354961286</v>
+      </c>
+      <c r="M3">
+        <v>860</v>
+      </c>
+      <c r="N3">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="O3">
+        <v>-0.23271988704889524</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>-1.1408974442064987</v>
+      </c>
+      <c r="G4">
+        <v>0.15338752461773897</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="K4">
+        <v>-0.57256685483756831</v>
+      </c>
+      <c r="M4">
+        <v>870</v>
+      </c>
+      <c r="N4">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="O4">
+        <v>-0.50005120866828212</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>230</v>
+      </c>
+      <c r="F5">
+        <v>-1.1512396002413157</v>
+      </c>
+      <c r="G5">
+        <v>-0.46780373889096089</v>
+      </c>
+      <c r="I5">
+        <v>510</v>
+      </c>
+      <c r="J5">
+        <v>-1.3341154242617597</v>
+      </c>
+      <c r="K5">
+        <v>-0.65567490358963643</v>
+      </c>
+      <c r="M5">
+        <v>880</v>
+      </c>
+      <c r="N5">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="O5">
+        <v>-0.58467054691470155</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>240</v>
+      </c>
+      <c r="F6">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="G6">
+        <v>-0.83833552902707664</v>
+      </c>
+      <c r="I6">
+        <v>520</v>
+      </c>
+      <c r="J6">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="K6">
+        <v>-1.3355968312660114</v>
+      </c>
+      <c r="M6">
+        <v>890</v>
+      </c>
+      <c r="N6">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="O6">
+        <v>-0.69817666826293479</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="G7">
+        <v>-0.97874362710215579</v>
+      </c>
+      <c r="I7">
+        <v>530</v>
+      </c>
+      <c r="J7">
+        <v>-1.3428514112607162</v>
+      </c>
+      <c r="K7">
+        <v>-1.013638993640273</v>
+      </c>
+      <c r="M7">
+        <v>900</v>
+      </c>
+      <c r="N7">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="O7">
+        <v>-0.64074525444350117</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>260</v>
+      </c>
+      <c r="F8">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="G8">
+        <v>-1.3235350307732185</v>
+      </c>
+      <c r="I8">
+        <v>540</v>
+      </c>
+      <c r="J8">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="K8">
+        <v>-1.5709374279543991</v>
+      </c>
+      <c r="M8">
+        <v>910</v>
+      </c>
+      <c r="N8">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="O8">
+        <v>-0.91799442019462529</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="G9">
+        <v>-1.3392977523688978</v>
+      </c>
+      <c r="I9">
+        <v>550</v>
+      </c>
+      <c r="J9">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="K9">
+        <v>-1.663636671706213</v>
+      </c>
+      <c r="M9">
+        <v>920</v>
+      </c>
+      <c r="N9">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="O9">
+        <v>-1.2005809456790988</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>280</v>
+      </c>
+      <c r="F10">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="G10">
+        <v>-1.5319974634036011</v>
+      </c>
+      <c r="I10">
+        <v>560</v>
+      </c>
+      <c r="J10">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="K10">
+        <v>-1.6017453887595789</v>
+      </c>
+      <c r="M10">
+        <v>930</v>
+      </c>
+      <c r="N10">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="O10">
+        <v>-1.536496942819682</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>290</v>
+      </c>
+      <c r="F11">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="G11">
+        <v>-1.3020913932540708</v>
+      </c>
+      <c r="I11">
+        <v>570</v>
+      </c>
+      <c r="J11">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="K11">
+        <v>-1.831834267047975</v>
+      </c>
+      <c r="M11">
+        <v>940</v>
+      </c>
+      <c r="N11">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="O11">
+        <v>-1.6888588842702703</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="G12">
+        <v>-1.3812853672059702</v>
+      </c>
+      <c r="I12">
+        <v>580</v>
+      </c>
+      <c r="J12">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="K12">
+        <v>-1.8319605483194128</v>
+      </c>
+      <c r="M12">
+        <v>950</v>
+      </c>
+      <c r="N12">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="O12">
+        <v>-1.6797476115063039</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>310</v>
+      </c>
+      <c r="F13">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="G13">
+        <v>-1.5841627740864539</v>
+      </c>
+      <c r="I13">
+        <v>590</v>
+      </c>
+      <c r="J13">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="K13">
+        <v>-1.8158120470854284</v>
+      </c>
+      <c r="M13">
+        <v>970</v>
+      </c>
+      <c r="N13">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="O13">
+        <v>-1.8995122365276833</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>320</v>
+      </c>
+      <c r="F14">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="G14">
+        <v>-1.2849298345891835</v>
+      </c>
+      <c r="I14">
+        <v>600</v>
+      </c>
+      <c r="J14">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="K14">
+        <v>-1.8642305108659341</v>
+      </c>
+      <c r="M14">
+        <v>990</v>
+      </c>
+      <c r="N14">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="O14">
+        <v>-2.0228975664592843</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>330</v>
+      </c>
+      <c r="F15">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="G15">
+        <v>-1.4350509935776177</v>
+      </c>
+      <c r="I15">
+        <v>610</v>
+      </c>
+      <c r="J15">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="K15">
+        <v>-1.8241274187781182</v>
+      </c>
+      <c r="M15">
+        <v>1010</v>
+      </c>
+      <c r="N15">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="O15">
+        <v>-2.1283030263606695</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>340</v>
+      </c>
+      <c r="F16">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="G16">
+        <v>-1.1398700496059468</v>
+      </c>
+      <c r="I16">
+        <v>620</v>
+      </c>
+      <c r="J16">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="K16">
+        <v>-1.8481028521961302</v>
+      </c>
+      <c r="M16">
+        <v>1050</v>
+      </c>
+      <c r="N16">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="O16">
+        <v>-2.1389127540109132</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>350</v>
+      </c>
+      <c r="F17">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="G17">
+        <v>-1.3554435874847359</v>
+      </c>
+      <c r="I17">
+        <v>630</v>
+      </c>
+      <c r="J17">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="K17">
+        <v>-1.835966647667062</v>
+      </c>
+      <c r="M17">
+        <v>1100</v>
+      </c>
+      <c r="N17">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="O17">
+        <v>-2.0755858889147056</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>360</v>
+      </c>
+      <c r="F18">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="G18">
+        <v>-1.3805627722296632</v>
+      </c>
+      <c r="I18">
+        <v>650</v>
+      </c>
+      <c r="J18">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="K18">
+        <v>-1.7762900323829178</v>
+      </c>
+      <c r="M18">
+        <v>1150</v>
+      </c>
+      <c r="N18">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="O18">
+        <v>-2.0536928559441927</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>370</v>
+      </c>
+      <c r="F19">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="G19">
+        <v>-1.0156836958655588</v>
+      </c>
+      <c r="I19">
+        <v>700</v>
+      </c>
+      <c r="J19">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="K19">
+        <v>-1.7237843735524381</v>
+      </c>
+      <c r="M19">
+        <v>1200</v>
+      </c>
+      <c r="N19">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="O19">
+        <v>-2.0160894843695303</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>380</v>
+      </c>
+      <c r="F20">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="G20">
+        <v>-1.0985487738905408</v>
+      </c>
+      <c r="I20">
+        <v>730</v>
+      </c>
+      <c r="J20">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="K20">
+        <v>-1.6566124468709311</v>
+      </c>
+      <c r="M20">
+        <v>1250</v>
+      </c>
+      <c r="N20">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="O20">
+        <v>-1.6799502297945295</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>390</v>
+      </c>
+      <c r="F21">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="G21">
+        <v>-1.1024638331451715</v>
+      </c>
+      <c r="I21">
+        <v>750</v>
+      </c>
+      <c r="J21">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="K21">
+        <v>-1.3901112163046683</v>
+      </c>
+      <c r="M21">
+        <v>1300</v>
+      </c>
+      <c r="N21">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="O21">
+        <v>-1.6546898618306722</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>400</v>
+      </c>
+      <c r="F22">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="G22">
+        <v>-1.0676537879279056</v>
+      </c>
+      <c r="I22">
+        <v>770</v>
+      </c>
+      <c r="J22">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="K22">
+        <v>-1.5401482219031728</v>
+      </c>
+      <c r="M22">
+        <v>1350</v>
+      </c>
+      <c r="N22">
+        <v>-1.5531830563669675</v>
+      </c>
+      <c r="O22">
+        <v>-1.6086763204766141</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>410</v>
+      </c>
+      <c r="F23">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="G23">
+        <v>-1.1292649113399391</v>
+      </c>
+      <c r="I23">
+        <v>790</v>
+      </c>
+      <c r="J23">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="K23">
+        <v>-1.4758827620893651</v>
+      </c>
+      <c r="M23">
+        <v>1400</v>
+      </c>
+      <c r="N23">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="O23">
+        <v>-1.5262695841316853</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>420</v>
+      </c>
+      <c r="F24">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="G24">
+        <v>-0.95558976294273523</v>
+      </c>
+      <c r="I24">
+        <v>850</v>
+      </c>
+      <c r="J24">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="K24">
+        <v>-1.2543249520554023</v>
+      </c>
+      <c r="M24">
+        <v>1450</v>
+      </c>
+      <c r="N24">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="O24">
+        <v>-1.4181009206220194</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>430</v>
+      </c>
+      <c r="F25">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="G25">
+        <v>-0.51799663073142721</v>
+      </c>
+      <c r="I25">
+        <v>900</v>
+      </c>
+      <c r="J25">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="K25">
+        <v>-0.77307324485918594</v>
+      </c>
+      <c r="M25">
+        <v>1500</v>
+      </c>
+      <c r="N25">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="O25">
+        <v>-1.3154731870012681</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>441</v>
+      </c>
+      <c r="F26">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G26">
+        <v>-0.48358503986165241</v>
+      </c>
+      <c r="I26">
+        <v>950</v>
+      </c>
+      <c r="J26">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="K26">
+        <v>-0.72450580835019185</v>
+      </c>
+      <c r="M26">
+        <v>1550</v>
+      </c>
+      <c r="N26">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="O26">
+        <v>-1.2129505600650849</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>450</v>
+      </c>
+      <c r="F27">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="G27">
+        <v>-0.32179949535625735</v>
+      </c>
+      <c r="I27">
+        <v>961</v>
+      </c>
+      <c r="J27">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="K27">
+        <v>-0.56464965131561584</v>
+      </c>
+      <c r="M27">
+        <v>1600</v>
+      </c>
+      <c r="N27">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="O27">
+        <v>-0.91942322874213966</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>460</v>
+      </c>
+      <c r="F28">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="G28">
+        <v>-0.39353555261296486</v>
+      </c>
+      <c r="I28">
+        <v>970</v>
+      </c>
+      <c r="J28">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="K28">
+        <v>-0.28911561333338187</v>
+      </c>
+      <c r="M28">
+        <v>1650</v>
+      </c>
+      <c r="N28">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="O28">
+        <v>-0.75967539486684221</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>470</v>
+      </c>
+      <c r="F29">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="G29">
+        <v>-0.31114859719324894</v>
+      </c>
+      <c r="I29">
+        <v>990</v>
+      </c>
+      <c r="J29">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="K29">
+        <v>-0.27062597207386324</v>
+      </c>
+      <c r="M29">
+        <v>1681</v>
+      </c>
+      <c r="N29">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="O29">
+        <v>-0.78810804434126436</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>480</v>
+      </c>
+      <c r="F30">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="G30">
+        <v>-0.28028946300086521</v>
+      </c>
+      <c r="I30">
+        <v>1010</v>
+      </c>
+      <c r="J30">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="K30">
+        <v>-0.26912834142299852</v>
+      </c>
+      <c r="M30">
+        <v>1700</v>
+      </c>
+      <c r="N30">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="O30">
+        <v>-0.51827666324323751</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>490</v>
+      </c>
+      <c r="F31">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="G31">
+        <v>-0.18861232545324588</v>
+      </c>
+      <c r="I31">
+        <v>1050</v>
+      </c>
+      <c r="J31">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="K31">
+        <v>-0.35269154177970768</v>
+      </c>
+      <c r="M31">
+        <v>1750</v>
+      </c>
+      <c r="N31">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="O31">
+        <v>-0.36009438672422217</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="G32">
+        <v>-0.2584478607627767</v>
+      </c>
+      <c r="I32">
+        <v>1100</v>
+      </c>
+      <c r="J32">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="K32">
+        <v>-0.24053889177419183</v>
+      </c>
+      <c r="M32">
+        <v>1800</v>
+      </c>
+      <c r="N32">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="O32">
+        <v>-0.31275062692240141</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1150</v>
+      </c>
+      <c r="J33">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="K33">
+        <v>-0.25000004627113026</v>
+      </c>
+      <c r="M33">
+        <v>1850</v>
+      </c>
+      <c r="N33">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="O33">
+        <v>-0.38784052125988161</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>1900</v>
+      </c>
+      <c r="N34">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="O34">
+        <v>-0.3674005599518701</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0781A8B3-E7CB-4FF9-9903-827D4C347234}">
+  <dimension ref="E2:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>220</v>
+      </c>
+      <c r="F2">
+        <v>-1.1408974442064987</v>
+      </c>
+      <c r="G2">
+        <v>-0.10403124565725239</v>
+      </c>
+      <c r="I2">
+        <v>480</v>
+      </c>
+      <c r="J2">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="K2">
+        <v>-1.3179868997838606E-3</v>
+      </c>
+      <c r="M2">
+        <v>850</v>
+      </c>
+      <c r="N2">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="O2">
+        <v>-5.8312882375746139E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>230</v>
+      </c>
+      <c r="F3">
+        <v>-1.1512396002413157</v>
+      </c>
+      <c r="G3">
+        <v>-0.79132890892950236</v>
+      </c>
+      <c r="I3">
+        <v>490</v>
+      </c>
+      <c r="J3">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="K3">
+        <v>-0.46717098639763899</v>
+      </c>
+      <c r="M3">
+        <v>860</v>
+      </c>
+      <c r="N3">
+        <v>-1.4521815189454532</v>
+      </c>
+      <c r="O3">
+        <v>-0.3401197908128149</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>-1.1611263290426415</v>
+      </c>
+      <c r="G4">
+        <v>-1.1039930330076662</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="K4">
+        <v>-0.70114427322068185</v>
+      </c>
+      <c r="M4">
+        <v>870</v>
+      </c>
+      <c r="N4">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="O4">
+        <v>-0.56740208553422178</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>-1.1705957677134431</v>
+      </c>
+      <c r="G5">
+        <v>-1.1173758134320668</v>
+      </c>
+      <c r="I5">
+        <v>510</v>
+      </c>
+      <c r="J5">
+        <v>-1.3341154242617597</v>
+      </c>
+      <c r="K5">
+        <v>-0.74600289619445614</v>
+      </c>
+      <c r="M5">
+        <v>880</v>
+      </c>
+      <c r="N5">
+        <v>-1.4573488242756329</v>
+      </c>
+      <c r="O5">
+        <v>-0.64490308928465778</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>260</v>
+      </c>
+      <c r="F6">
+        <v>-1.1796814712237069</v>
+      </c>
+      <c r="G6">
+        <v>-1.4104129682469659</v>
+      </c>
+      <c r="I6">
+        <v>520</v>
+      </c>
+      <c r="J6">
+        <v>-1.3385263835334889</v>
+      </c>
+      <c r="K6">
+        <v>-1.3756688170841729</v>
+      </c>
+      <c r="M6">
+        <v>890</v>
+      </c>
+      <c r="N6">
+        <v>-1.459887840419503</v>
+      </c>
+      <c r="O6">
+        <v>-0.7515984664041987</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>270</v>
+      </c>
+      <c r="F7">
+        <v>-1.1884131167903196</v>
+      </c>
+      <c r="G7">
+        <v>-1.3685814659693571</v>
+      </c>
+      <c r="I7">
+        <v>530</v>
+      </c>
+      <c r="J7">
+        <v>-1.3428514112607162</v>
+      </c>
+      <c r="K7">
+        <v>-1.0652815018408721</v>
+      </c>
+      <c r="M7">
+        <v>900</v>
+      </c>
+      <c r="N7">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="O7">
+        <v>-0.71837074942595236</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>280</v>
+      </c>
+      <c r="F8">
+        <v>-1.1968170780858902</v>
+      </c>
+      <c r="G8">
+        <v>-1.5946992483525371</v>
+      </c>
+      <c r="I8">
+        <v>540</v>
+      </c>
+      <c r="J8">
+        <v>-1.34709377446024</v>
+      </c>
+      <c r="K8">
+        <v>-1.5983287711331524</v>
+      </c>
+      <c r="M8">
+        <v>910</v>
+      </c>
+      <c r="N8">
+        <v>-1.464879942719006</v>
+      </c>
+      <c r="O8">
+        <v>-0.95858574735864566</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>290</v>
+      </c>
+      <c r="F9">
+        <v>-1.2049168970894524</v>
+      </c>
+      <c r="G9">
+        <v>-1.4252464372924745</v>
+      </c>
+      <c r="I9">
+        <v>550</v>
+      </c>
+      <c r="J9">
+        <v>-1.3512565577753963</v>
+      </c>
+      <c r="K9">
+        <v>-1.7246711351395223</v>
+      </c>
+      <c r="M9">
+        <v>920</v>
+      </c>
+      <c r="N9">
+        <v>-1.4673342994763732</v>
+      </c>
+      <c r="O9">
+        <v>-1.2530513501555773</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>-1.2127336747017503</v>
+      </c>
+      <c r="G10">
+        <v>-1.5059920057666274</v>
+      </c>
+      <c r="I10">
+        <v>560</v>
+      </c>
+      <c r="J10">
+        <v>-1.3553426767817005</v>
+      </c>
+      <c r="K10">
+        <v>-1.6480998409944771</v>
+      </c>
+      <c r="M10">
+        <v>930</v>
+      </c>
+      <c r="N10">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="O10">
+        <v>-1.5970634786600677</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>310</v>
+      </c>
+      <c r="F11">
+        <v>-1.2202863963347843</v>
+      </c>
+      <c r="G11">
+        <v>-1.6265181260972081</v>
+      </c>
+      <c r="I11">
+        <v>570</v>
+      </c>
+      <c r="J11">
+        <v>-1.3593548901020247</v>
+      </c>
+      <c r="K11">
+        <v>-1.8603877548839198</v>
+      </c>
+      <c r="M11">
+        <v>940</v>
+      </c>
+      <c r="N11">
+        <v>-1.4721626457048409</v>
+      </c>
+      <c r="O11">
+        <v>-1.7331177574014571</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>320</v>
+      </c>
+      <c r="F12">
+        <v>-1.2275922050356167</v>
+      </c>
+      <c r="G12">
+        <v>-1.4459923010016991</v>
+      </c>
+      <c r="I12">
+        <v>580</v>
+      </c>
+      <c r="J12">
+        <v>-1.3632958104567814</v>
+      </c>
+      <c r="K12">
+        <v>-1.8469941256146463</v>
+      </c>
+      <c r="M12">
+        <v>950</v>
+      </c>
+      <c r="N12">
+        <v>-1.4745377854893176</v>
+      </c>
+      <c r="O12">
+        <v>-1.6946959740446252</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>330</v>
+      </c>
+      <c r="F13">
+        <v>-1.2346666319641684</v>
+      </c>
+      <c r="G13">
+        <v>-1.3963633346817677</v>
+      </c>
+      <c r="I13">
+        <v>590</v>
+      </c>
+      <c r="J13">
+        <v>-1.3671679147594331</v>
+      </c>
+      <c r="K13">
+        <v>-1.8721970959838012</v>
+      </c>
+      <c r="M13">
+        <v>970</v>
+      </c>
+      <c r="N13">
+        <v>-1.4792127382505811</v>
+      </c>
+      <c r="O13">
+        <v>-1.9138104241690179</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>340</v>
+      </c>
+      <c r="F14">
+        <v>-1.2415237919667508</v>
+      </c>
+      <c r="G14">
+        <v>-1.1524634379045942</v>
+      </c>
+      <c r="I14">
+        <v>600</v>
+      </c>
+      <c r="J14">
+        <v>-1.3709735533545488</v>
+      </c>
+      <c r="K14">
+        <v>-1.8829583075201541</v>
+      </c>
+      <c r="M14">
+        <v>990</v>
+      </c>
+      <c r="N14">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="O14">
+        <v>-2.037815431145078</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>350</v>
+      </c>
+      <c r="F15">
+        <v>-1.2481765503966398</v>
+      </c>
+      <c r="G15">
+        <v>-1.2815043702345357</v>
+      </c>
+      <c r="I15">
+        <v>610</v>
+      </c>
+      <c r="J15">
+        <v>-1.3747149584842719</v>
+      </c>
+      <c r="K15">
+        <v>-1.8317813722090182</v>
+      </c>
+      <c r="M15">
+        <v>1010</v>
+      </c>
+      <c r="N15">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="O15">
+        <v>-2.1442240581221932</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>360</v>
+      </c>
+      <c r="F16">
+        <v>-1.2546366661051482</v>
+      </c>
+      <c r="G16">
+        <v>-1.270563086313798</v>
+      </c>
+      <c r="I16">
+        <v>620</v>
+      </c>
+      <c r="J16">
+        <v>-1.3783942520592136</v>
+      </c>
+      <c r="K16">
+        <v>-1.843509000692314</v>
+      </c>
+      <c r="M16">
+        <v>1050</v>
+      </c>
+      <c r="N16">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="O16">
+        <v>-2.148432579912928</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>370</v>
+      </c>
+      <c r="F17">
+        <v>-1.2609149145710006</v>
+      </c>
+      <c r="G17">
+        <v>-1.0845537612002421</v>
+      </c>
+      <c r="I17">
+        <v>630</v>
+      </c>
+      <c r="J17">
+        <v>-1.3820134528011816</v>
+      </c>
+      <c r="K17">
+        <v>-1.8384990873021707</v>
+      </c>
+      <c r="M17">
+        <v>1100</v>
+      </c>
+      <c r="N17">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="O17">
+        <v>-2.0892745578997287</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>380</v>
+      </c>
+      <c r="F18">
+        <v>-1.2670211943863257</v>
+      </c>
+      <c r="G18">
+        <v>-0.98071607345438006</v>
+      </c>
+      <c r="I18">
+        <v>650</v>
+      </c>
+      <c r="J18">
+        <v>-1.3890791736614636</v>
+      </c>
+      <c r="K18">
+        <v>-1.7708271056913878</v>
+      </c>
+      <c r="M18">
+        <v>1150</v>
+      </c>
+      <c r="N18">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="O18">
+        <v>-2.076873808429248</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>390</v>
+      </c>
+      <c r="F19">
+        <v>-1.2729646197255697</v>
+      </c>
+      <c r="G19">
+        <v>-0.89035212094873695</v>
+      </c>
+      <c r="I19">
+        <v>700</v>
+      </c>
+      <c r="J19">
+        <v>-1.4058159761017934</v>
+      </c>
+      <c r="K19">
+        <v>-1.7386871902440437</v>
+      </c>
+      <c r="M19">
+        <v>1200</v>
+      </c>
+      <c r="N19">
+        <v>-1.5268691055049159</v>
+      </c>
+      <c r="O19">
+        <v>-2.029890853762863</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>-1.2787536009528291</v>
+      </c>
+      <c r="G20">
+        <v>-0.95490617563505331</v>
+      </c>
+      <c r="I20">
+        <v>730</v>
+      </c>
+      <c r="J20">
+        <v>-1.4152824584871957</v>
+      </c>
+      <c r="K20">
+        <v>-1.623207621161491</v>
+      </c>
+      <c r="M20">
+        <v>1250</v>
+      </c>
+      <c r="N20">
+        <v>-1.5359942390323134</v>
+      </c>
+      <c r="O20">
+        <v>-1.7349851655682542</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>410</v>
+      </c>
+      <c r="F21">
+        <v>-1.2843959151462876</v>
+      </c>
+      <c r="G21">
+        <v>-0.76189886294213105</v>
+      </c>
+      <c r="I21">
+        <v>750</v>
+      </c>
+      <c r="J21">
+        <v>-1.4213756628311986</v>
+      </c>
+      <c r="K21">
+        <v>-1.4022821382328801</v>
+      </c>
+      <c r="M21">
+        <v>1300</v>
+      </c>
+      <c r="N21">
+        <v>-1.5447563238906996</v>
+      </c>
+      <c r="O21">
+        <v>-1.7707320211590447</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>420</v>
+      </c>
+      <c r="F22">
+        <v>-1.2898987680150662</v>
+      </c>
+      <c r="G22">
+        <v>-0.61589990859626775</v>
+      </c>
+      <c r="I22">
+        <v>770</v>
+      </c>
+      <c r="J22">
+        <v>-1.427305502597187</v>
+      </c>
+      <c r="K22">
+        <v>-1.4585807954837455</v>
+      </c>
+      <c r="M22">
+        <v>1350</v>
+      </c>
+      <c r="N22">
+        <v>-1.5531830563669675</v>
+      </c>
+      <c r="O22">
+        <v>-1.6283271665492489</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>430</v>
+      </c>
+      <c r="F23">
+        <v>-1.2952688484380843</v>
+      </c>
+      <c r="G23">
+        <v>-0.3924035622468805</v>
+      </c>
+      <c r="I23">
+        <v>790</v>
+      </c>
+      <c r="J23">
+        <v>-1.4330804727775017</v>
+      </c>
+      <c r="K23">
+        <v>-1.4744141854463728</v>
+      </c>
+      <c r="M23">
+        <v>1400</v>
+      </c>
+      <c r="N23">
+        <v>-1.5612990842286081</v>
+      </c>
+      <c r="O23">
+        <v>-1.5837334538994292</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>441</v>
+      </c>
+      <c r="F24">
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G24">
+        <v>-0.3721757466204127</v>
+      </c>
+      <c r="I24">
+        <v>810</v>
+      </c>
+      <c r="J24">
+        <v>-1.4387084238540642</v>
+      </c>
+      <c r="K24">
+        <v>-1.4327214415283405</v>
+      </c>
+      <c r="M24">
+        <v>1450</v>
+      </c>
+      <c r="N24">
+        <v>-1.5691264379348757</v>
+      </c>
+      <c r="O24">
+        <v>-1.445554256829513</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>450</v>
+      </c>
+      <c r="F25">
+        <v>-1.3056351469717018</v>
+      </c>
+      <c r="G25">
+        <v>-0.19849372231480081</v>
+      </c>
+      <c r="I25">
+        <v>850</v>
+      </c>
+      <c r="J25">
+        <v>-1.44955182152031</v>
+      </c>
+      <c r="K25">
+        <v>-1.1751261229406196</v>
+      </c>
+      <c r="M25">
+        <v>1500</v>
+      </c>
+      <c r="N25">
+        <v>-1.576684888247329</v>
+      </c>
+      <c r="O25">
+        <v>-1.3003492271306569</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>460</v>
+      </c>
+      <c r="F26">
+        <v>-1.3106425657217584</v>
+      </c>
+      <c r="G26">
+        <v>-0.29935027448501761</v>
+      </c>
+      <c r="I26">
+        <v>870</v>
+      </c>
+      <c r="J26">
+        <v>-1.4547802810657018</v>
+      </c>
+      <c r="K26">
+        <v>-1.0751637216281489</v>
+      </c>
+      <c r="M26">
+        <v>1550</v>
+      </c>
+      <c r="N26">
+        <v>-1.5839922448118329</v>
+      </c>
+      <c r="O26">
+        <v>-1.2041625608590338</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>470</v>
+      </c>
+      <c r="F27">
+        <v>-1.315539685086869</v>
+      </c>
+      <c r="G27">
+        <v>-0.17435746999451388</v>
+      </c>
+      <c r="I27">
+        <v>900</v>
+      </c>
+      <c r="J27">
+        <v>-1.4623979978989561</v>
+      </c>
+      <c r="K27">
+        <v>-0.74477855857470288</v>
+      </c>
+      <c r="M27">
+        <v>1600</v>
+      </c>
+      <c r="N27">
+        <v>-1.5910646070264993</v>
+      </c>
+      <c r="O27">
+        <v>-0.92369861158783861</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>480</v>
+      </c>
+      <c r="F28">
+        <v>-1.3203312333209405</v>
+      </c>
+      <c r="G28">
+        <v>-0.17079340397743181</v>
+      </c>
+      <c r="I28">
+        <v>930</v>
+      </c>
+      <c r="J28">
+        <v>-1.4697616722939442</v>
+      </c>
+      <c r="K28">
+        <v>-0.71859520033405522</v>
+      </c>
+      <c r="M28">
+        <v>1650</v>
+      </c>
+      <c r="N28">
+        <v>-1.5979165760587952</v>
+      </c>
+      <c r="O28">
+        <v>-0.73641663855249428</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>490</v>
+      </c>
+      <c r="F29">
+        <v>-1.3250216418183483</v>
+      </c>
+      <c r="G29">
+        <v>-9.5199428675545872E-2</v>
+      </c>
+      <c r="I29">
+        <v>961</v>
+      </c>
+      <c r="J29">
+        <v>-1.4771212547196624</v>
+      </c>
+      <c r="K29">
+        <v>-0.49245796186953611</v>
+      </c>
+      <c r="M29">
+        <v>1681</v>
+      </c>
+      <c r="N29">
+        <v>-1.6020599913279623</v>
+      </c>
+      <c r="O29">
+        <v>-0.75302444286106918</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>-1.3296150694161135</v>
+      </c>
+      <c r="G30">
+        <v>-9.887349911642257E-2</v>
+      </c>
+      <c r="I30">
+        <v>990</v>
+      </c>
+      <c r="J30">
+        <v>-1.483790710870672</v>
+      </c>
+      <c r="K30">
+        <v>-0.21866026329077279</v>
+      </c>
+      <c r="M30">
+        <v>1700</v>
+      </c>
+      <c r="N30">
+        <v>-1.6045614350124011</v>
+      </c>
+      <c r="O30">
+        <v>-0.49115068274507073</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1010</v>
+      </c>
+      <c r="J31">
+        <v>-1.4882756302420317</v>
+      </c>
+      <c r="K31">
+        <v>-0.21549426634770366</v>
+      </c>
+      <c r="M31">
+        <v>1750</v>
+      </c>
+      <c r="N31">
+        <v>-1.6110113028159903</v>
+      </c>
+      <c r="O31">
+        <v>-0.31129549613298246</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1050</v>
+      </c>
+      <c r="J32">
+        <v>-1.4969808681786825</v>
+      </c>
+      <c r="K32">
+        <v>-0.28776746566731692</v>
+      </c>
+      <c r="M32">
+        <v>1800</v>
+      </c>
+      <c r="N32">
+        <v>-1.6172772663012898</v>
+      </c>
+      <c r="O32">
+        <v>-0.26437553880041476</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1100</v>
+      </c>
+      <c r="J33">
+        <v>-1.5074004047062166</v>
+      </c>
+      <c r="K33">
+        <v>-0.18198960393664904</v>
+      </c>
+      <c r="M33">
+        <v>1850</v>
+      </c>
+      <c r="N33">
+        <v>-1.623369494076375</v>
+      </c>
+      <c r="O33">
+        <v>-0.32638444627099078</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1150</v>
+      </c>
+      <c r="J34">
+        <v>-1.5173496547432015</v>
+      </c>
+      <c r="K34">
+        <v>-0.17512607090394769</v>
+      </c>
+      <c r="M34">
+        <v>1900</v>
+      </c>
+      <c r="N34">
+        <v>-1.6292973351234461</v>
+      </c>
+      <c r="O34">
+        <v>-0.32033281028249028</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/SquarePlate_UniformLoading.xlsx
+++ b/xlsx/SquarePlate_UniformLoading.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418211A1-A171-4D89-A645-511A90571831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38DDD6-C23B-4A0B-A524-D2F078819BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="quad悬臂" sheetId="7" r:id="rId7"/>
     <sheet name="quad简支" sheetId="8" r:id="rId8"/>
     <sheet name="quad固支" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -915,6 +916,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5FE997-B7E9-4C6C-9A60-53706602BE2F}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.6786801899679296E-3</v>
+      </c>
+      <c r="B2">
+        <v>6.7997397543562903E-4</v>
+      </c>
+      <c r="D2">
+        <v>-2.17530935232169</v>
+      </c>
+      <c r="E2">
+        <v>-3.1675077086775598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.2791121982628001E-2</v>
+      </c>
+      <c r="B3">
+        <v>4.36827331209456E-4</v>
+      </c>
+      <c r="D3">
+        <v>-2.4040813917918999</v>
+      </c>
+      <c r="E3">
+        <v>-3.3596901967178998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.5638809842281801E-3</v>
+      </c>
+      <c r="B4">
+        <v>3.67757589720137E-4</v>
+      </c>
+      <c r="D4">
+        <v>-2.3406656895314</v>
+      </c>
+      <c r="E4">
+        <v>-3.4344383556104598</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A6C8F1-BD3F-467F-BA44-ABC65D94611C}">
   <dimension ref="A1:I19"/>
@@ -1595,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8AB516-2D20-43BE-9363-3C56DFE5CC7D}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6971,7 +7031,7 @@
   <dimension ref="E2:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
